--- a/Results/results_df.xlsx
+++ b/Results/results_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="318">
   <si>
     <t>Folder_name</t>
   </si>
@@ -848,112 +848,112 @@
 [2400 rows x 1 columns]</t>
   </si>
   <si>
-    <t>[-1.89372692]</t>
-  </si>
-  <si>
-    <t>[9.4234456]</t>
-  </si>
-  <si>
-    <t>[0.83773419]</t>
-  </si>
-  <si>
-    <t>[-1.84343442]</t>
-  </si>
-  <si>
-    <t>[9.45157202]</t>
-  </si>
-  <si>
-    <t>[0.5561555]</t>
-  </si>
-  <si>
-    <t>[-1.94598534]</t>
-  </si>
-  <si>
-    <t>[9.41637834]</t>
-  </si>
-  <si>
-    <t>[0.71885625]</t>
-  </si>
-  <si>
-    <t>[-1.82285977]</t>
-  </si>
-  <si>
-    <t>[9.45919694]</t>
-  </si>
-  <si>
-    <t>[0.43699617]</t>
-  </si>
-  <si>
-    <t>[0.0004321]</t>
-  </si>
-  <si>
-    <t>[-0.00243643]</t>
-  </si>
-  <si>
-    <t>[-0.0010218]</t>
-  </si>
-  <si>
-    <t>[0.00230275]</t>
-  </si>
-  <si>
-    <t>[-0.0005113]</t>
-  </si>
-  <si>
-    <t>[-0.00074105]</t>
-  </si>
-  <si>
-    <t>[0.00239909]</t>
-  </si>
-  <si>
-    <t>[-0.00256019]</t>
-  </si>
-  <si>
-    <t>[0.00015226]</t>
-  </si>
-  <si>
-    <t>[0.00357175]</t>
-  </si>
-  <si>
-    <t>[0.0004133]</t>
-  </si>
-  <si>
-    <t>[-0.00026608]</t>
-  </si>
-  <si>
-    <t>[0.00318649]</t>
-  </si>
-  <si>
-    <t>[0.0004388]</t>
-  </si>
-  <si>
-    <t>[0.00166582]</t>
-  </si>
-  <si>
-    <t>[0.00296666]</t>
-  </si>
-  <si>
-    <t>[0.00024533]</t>
-  </si>
-  <si>
-    <t>[0.00159243]</t>
-  </si>
-  <si>
-    <t>[0.00341668]</t>
-  </si>
-  <si>
-    <t>[0.00027029]</t>
-  </si>
-  <si>
-    <t>[0.00296502]</t>
-  </si>
-  <si>
-    <t>[0.00239742]</t>
-  </si>
-  <si>
-    <t>[8.66562319e-05]</t>
-  </si>
-  <si>
-    <t>[0.00178441]</t>
+    <t>[-1.89314501]</t>
+  </si>
+  <si>
+    <t>[9.42354258]</t>
+  </si>
+  <si>
+    <t>[0.84067312]</t>
+  </si>
+  <si>
+    <t>[-1.84383948]</t>
+  </si>
+  <si>
+    <t>[9.45147993]</t>
+  </si>
+  <si>
+    <t>[0.55620002]</t>
+  </si>
+  <si>
+    <t>[-1.97107678]</t>
+  </si>
+  <si>
+    <t>[9.4112071]</t>
+  </si>
+  <si>
+    <t>[0.72014454]</t>
+  </si>
+  <si>
+    <t>[-1.8241538]</t>
+  </si>
+  <si>
+    <t>[9.46035214]</t>
+  </si>
+  <si>
+    <t>[0.43984851]</t>
+  </si>
+  <si>
+    <t>[-0.00029766]</t>
+  </si>
+  <si>
+    <t>[-0.00014881]</t>
+  </si>
+  <si>
+    <t>[-0.00093911]</t>
+  </si>
+  <si>
+    <t>[0.00193951]</t>
+  </si>
+  <si>
+    <t>[-0.000644]</t>
+  </si>
+  <si>
+    <t>[-0.0009398]</t>
+  </si>
+  <si>
+    <t>[0.00340833]</t>
+  </si>
+  <si>
+    <t>[-0.00037824]</t>
+  </si>
+  <si>
+    <t>[-0.00107519]</t>
+  </si>
+  <si>
+    <t>[0.00121946]</t>
+  </si>
+  <si>
+    <t>[0.00054958]</t>
+  </si>
+  <si>
+    <t>[0.00034518]</t>
+  </si>
+  <si>
+    <t>[0.00509092]</t>
+  </si>
+  <si>
+    <t>[0.00061521]</t>
+  </si>
+  <si>
+    <t>[0.00701451]</t>
+  </si>
+  <si>
+    <t>[0.00338726]</t>
+  </si>
+  <si>
+    <t>[0.00020727]</t>
+  </si>
+  <si>
+    <t>[0.00363771]</t>
+  </si>
+  <si>
+    <t>[0.00101967]</t>
+  </si>
+  <si>
+    <t>[-0.00091654]</t>
+  </si>
+  <si>
+    <t>[0.00222101]</t>
+  </si>
+  <si>
+    <t>[0.00359428]</t>
+  </si>
+  <si>
+    <t>[0.0001897]</t>
+  </si>
+  <si>
+    <t>[0.0006985]</t>
   </si>
   <si>
     <t>[20.6683914]</t>
@@ -962,16 +962,16 @@
     <t>[-35.08631407]</t>
   </si>
   <si>
-    <t>[-38.04781401]</t>
-  </si>
-  <si>
-    <t>[19.60236793]</t>
-  </si>
-  <si>
-    <t>[-36.67517342]</t>
-  </si>
-  <si>
-    <t>[-37.61181404]</t>
+    <t>[-38.04220141]</t>
+  </si>
+  <si>
+    <t>[19.60160304]</t>
+  </si>
+  <si>
+    <t>[-36.66716748]</t>
+  </si>
+  <si>
+    <t>[-37.61433196]</t>
   </si>
   <si>
     <t>[15.35218031]</t>
@@ -980,124 +980,121 @@
     <t>[-29.81129022]</t>
   </si>
   <si>
-    <t>[-32.80529056]</t>
+    <t>[-32.83097483]</t>
   </si>
   <si>
     <t>[14.36747714]</t>
   </si>
   <si>
-    <t>[-31.22487624]</t>
+    <t>[-31.22378459]</t>
   </si>
   <si>
     <t>[-32.36541544]</t>
   </si>
   <si>
-    <t>[-2.23011064]</t>
-  </si>
-  <si>
-    <t>[9.31525898]</t>
-  </si>
-  <si>
-    <t>[0.2105684]</t>
-  </si>
-  <si>
-    <t>[-2.05782747]</t>
-  </si>
-  <si>
-    <t>[9.34636498]</t>
-  </si>
-  <si>
-    <t>[0.10767702]</t>
+    <t>[-2.18943262]</t>
+  </si>
+  <si>
+    <t>[9.33918667]</t>
+  </si>
+  <si>
+    <t>[0.40677986]</t>
+  </si>
+  <si>
+    <t>[-2.03389931]</t>
+  </si>
+  <si>
+    <t>[9.37747192]</t>
+  </si>
+  <si>
+    <t>[0.11246266]</t>
   </si>
   <si>
     <t>[-2.52442789]</t>
   </si>
   <si>
-    <t>[9.1669035]</t>
-  </si>
-  <si>
-    <t>[-0.02392823]</t>
-  </si>
-  <si>
-    <t>[-2.44785762]</t>
-  </si>
-  <si>
-    <t>[9.02572727]</t>
-  </si>
-  <si>
-    <t>[-0.46660042]</t>
-  </si>
-  <si>
-    <t>[-0.10461059]</t>
-  </si>
-  <si>
-    <t>[-0.1579849]</t>
-  </si>
-  <si>
-    <t>[-0.04841103]</t>
+    <t>[9.1860466]</t>
+  </si>
+  <si>
+    <t>[0.03828516]</t>
+  </si>
+  <si>
+    <t>[-2.3641088]</t>
+  </si>
+  <si>
+    <t>[9.25783062]</t>
+  </si>
+  <si>
+    <t>[-0.37088752]</t>
+  </si>
+  <si>
+    <t>[-0.08994984]</t>
+  </si>
+  <si>
+    <t>[-0.08834632]</t>
+  </si>
+  <si>
+    <t>[-0.03069595]</t>
   </si>
   <si>
     <t>[-0.08872811]</t>
   </si>
   <si>
-    <t>[-0.08956805]</t>
-  </si>
-  <si>
-    <t>[-0.0282525]</t>
-  </si>
-  <si>
-    <t>[-0.19379686]</t>
-  </si>
-  <si>
-    <t>[-0.48540843]</t>
-  </si>
-  <si>
-    <t>[-0.20601414]</t>
-  </si>
-  <si>
-    <t>[-0.12904519]</t>
-  </si>
-  <si>
-    <t>[-0.18913901]</t>
-  </si>
-  <si>
-    <t>[-0.09728022]</t>
-  </si>
-  <si>
-    <t>[-0.20723653]</t>
-  </si>
-  <si>
-    <t>[-0.08938789]</t>
-  </si>
-  <si>
-    <t>[-0.5187943]</t>
-  </si>
-  <si>
-    <t>[-0.2038101]</t>
-  </si>
-  <si>
-    <t>[-0.08407307]</t>
-  </si>
-  <si>
-    <t>[-0.42170542]</t>
-  </si>
-  <si>
-    <t>[-0.67933726]</t>
-  </si>
-  <si>
-    <t>[-0.34216881]</t>
-  </si>
-  <si>
-    <t>[-0.56422532]</t>
-  </si>
-  <si>
-    <t>[-0.36896253]</t>
-  </si>
-  <si>
-    <t>[-0.42321682]</t>
-  </si>
-  <si>
-    <t>[-0.42335594]</t>
+    <t>[-0.0608574]</t>
+  </si>
+  <si>
+    <t>[-0.02336558]</t>
+  </si>
+  <si>
+    <t>[-0.11804962]</t>
+  </si>
+  <si>
+    <t>[-0.19463679]</t>
+  </si>
+  <si>
+    <t>[-0.09605849]</t>
+  </si>
+  <si>
+    <t>[-0.1390481]</t>
+  </si>
+  <si>
+    <t>[-0.07223476]</t>
+  </si>
+  <si>
+    <t>[-0.15260923]</t>
+  </si>
+  <si>
+    <t>[-0.0651598]</t>
+  </si>
+  <si>
+    <t>[-0.33525199]</t>
+  </si>
+  <si>
+    <t>[-0.12993133]</t>
+  </si>
+  <si>
+    <t>[-0.0645256]</t>
+  </si>
+  <si>
+    <t>[-0.29863676]</t>
+  </si>
+  <si>
+    <t>[-0.28021419]</t>
+  </si>
+  <si>
+    <t>[-0.16741276]</t>
+  </si>
+  <si>
+    <t>[-0.3643041]</t>
+  </si>
+  <si>
+    <t>[-0.20990968]</t>
+  </si>
+  <si>
+    <t>[-0.17748165]</t>
+  </si>
+  <si>
+    <t>[-0.33242899]</t>
   </si>
   <si>
     <t>[17.96250153]</t>
@@ -1106,13 +1103,13 @@
     <t>[-36.76875305]</t>
   </si>
   <si>
-    <t>[-40.875]</t>
-  </si>
-  <si>
-    <t>[18.26250076]</t>
-  </si>
-  <si>
-    <t>[-39.11250305]</t>
+    <t>[-40.46250153]</t>
+  </si>
+  <si>
+    <t>[18.35625076]</t>
+  </si>
+  <si>
+    <t>[-38.34375]</t>
   </si>
   <si>
     <t>[-39.39375305]</t>
@@ -1124,124 +1121,124 @@
     <t>[-32.8125]</t>
   </si>
   <si>
-    <t>[-35.34375]</t>
+    <t>[-35.11875153]</t>
   </si>
   <si>
     <t>[12.05625057]</t>
   </si>
   <si>
-    <t>[-33.84375]</t>
+    <t>[-33.76875305]</t>
   </si>
   <si>
     <t>[-35.0625]</t>
   </si>
   <si>
-    <t>[-1.5864414]</t>
-  </si>
-  <si>
-    <t>[9.53061295]</t>
+    <t>[-1.59840548]</t>
+  </si>
+  <si>
+    <t>[9.5066843]</t>
   </si>
   <si>
     <t>[1.26819599]</t>
   </si>
   <si>
-    <t>[-1.59361982]</t>
-  </si>
-  <si>
-    <t>[9.5688982]</t>
+    <t>[-1.65344048]</t>
+  </si>
+  <si>
+    <t>[9.52582741]</t>
   </si>
   <si>
     <t>[0.96191472]</t>
   </si>
   <si>
-    <t>[-0.55992049]</t>
-  </si>
-  <si>
-    <t>[9.97089195]</t>
+    <t>[-1.20837545]</t>
+  </si>
+  <si>
+    <t>[9.64786053]</t>
   </si>
   <si>
     <t>[1.38065863]</t>
   </si>
   <si>
-    <t>[-1.22033954]</t>
-  </si>
-  <si>
-    <t>[9.86560821]</t>
-  </si>
-  <si>
-    <t>[1.2777673]</t>
-  </si>
-  <si>
-    <t>[0.14278965]</t>
+    <t>[-1.28255296]</t>
+  </si>
+  <si>
+    <t>[9.66221809]</t>
+  </si>
+  <si>
+    <t>[1.24187493]</t>
+  </si>
+  <si>
+    <t>[0.091477]</t>
   </si>
   <si>
     <t>[0.08391755]</t>
   </si>
   <si>
-    <t>[0.0377209]</t>
-  </si>
-  <si>
-    <t>[0.1262963]</t>
-  </si>
-  <si>
-    <t>[0.0796415]</t>
-  </si>
-  <si>
-    <t>[0.03588831]</t>
-  </si>
-  <si>
-    <t>[0.18066326]</t>
-  </si>
-  <si>
-    <t>[0.34964374]</t>
-  </si>
-  <si>
-    <t>[0.21487169]</t>
-  </si>
-  <si>
-    <t>[0.19165882]</t>
-  </si>
-  <si>
-    <t>[0.15966478]</t>
+    <t>[0.02855793]</t>
+  </si>
+  <si>
+    <t>[0.0933096]</t>
+  </si>
+  <si>
+    <t>[0.06009382]</t>
+  </si>
+  <si>
+    <t>[0.02183842]</t>
+  </si>
+  <si>
+    <t>[0.1226311]</t>
+  </si>
+  <si>
+    <t>[0.18776456]</t>
+  </si>
+  <si>
+    <t>[0.09636392]</t>
+  </si>
+  <si>
+    <t>[0.12568542]</t>
+  </si>
+  <si>
+    <t>[0.13950625]</t>
   </si>
   <si>
     <t>[0.06520981]</t>
   </si>
   <si>
-    <t>[0.17697704]</t>
-  </si>
-  <si>
-    <t>[0.0734005]</t>
-  </si>
-  <si>
-    <t>[0.34091932]</t>
-  </si>
-  <si>
-    <t>[0.18643022]</t>
-  </si>
-  <si>
-    <t>[0.09744358]</t>
-  </si>
-  <si>
-    <t>[0.31752861]</t>
-  </si>
-  <si>
-    <t>[0.57591784]</t>
-  </si>
-  <si>
-    <t>[0.43862438]</t>
-  </si>
-  <si>
-    <t>[0.66301042]</t>
-  </si>
-  <si>
-    <t>[0.26808357]</t>
-  </si>
-  <si>
-    <t>[0.3820343]</t>
-  </si>
-  <si>
-    <t>[0.67216802]</t>
+    <t>[0.15976]</t>
+  </si>
+  <si>
+    <t>[0.06563854]</t>
+  </si>
+  <si>
+    <t>[0.32276136]</t>
+  </si>
+  <si>
+    <t>[0.13543177]</t>
+  </si>
+  <si>
+    <t>[0.06569195]</t>
+  </si>
+  <si>
+    <t>[0.29938126]</t>
+  </si>
+  <si>
+    <t>[0.29520965]</t>
+  </si>
+  <si>
+    <t>[0.16808796]</t>
+  </si>
+  <si>
+    <t>[0.36862126]</t>
+  </si>
+  <si>
+    <t>[0.21439314]</t>
+  </si>
+  <si>
+    <t>[0.17414761]</t>
+  </si>
+  <si>
+    <t>[0.33650571]</t>
   </si>
   <si>
     <t>[23.15625]</t>
@@ -1253,22 +1250,19 @@
     <t>[-35.98125076]</t>
   </si>
   <si>
-    <t>[21.13125038]</t>
+    <t>[20.88750076]</t>
   </si>
   <si>
     <t>[-35.04375076]</t>
   </si>
   <si>
-    <t>[-35.47500229]</t>
-  </si>
-  <si>
-    <t>[18.35625076]</t>
+    <t>[-35.75625229]</t>
   </si>
   <si>
     <t>[-26.81250191]</t>
   </si>
   <si>
-    <t>[-29.34375191]</t>
+    <t>[-30.48750114]</t>
   </si>
   <si>
     <t>[16.36875153]</t>
@@ -1280,112 +1274,112 @@
     <t>[-28.93125153]</t>
   </si>
   <si>
-    <t>[0.09862503]</t>
-  </si>
-  <si>
-    <t>[0.0282968]</t>
-  </si>
-  <si>
-    <t>[0.1441804]</t>
-  </si>
-  <si>
-    <t>[0.06354057]</t>
-  </si>
-  <si>
-    <t>[0.0251851]</t>
-  </si>
-  <si>
-    <t>[0.14806724]</t>
-  </si>
-  <si>
-    <t>[0.24615103]</t>
-  </si>
-  <si>
-    <t>[0.0772444]</t>
-  </si>
-  <si>
-    <t>[0.22700558]</t>
-  </si>
-  <si>
-    <t>[0.1807869]</t>
-  </si>
-  <si>
-    <t>[0.06782029]</t>
-  </si>
-  <si>
-    <t>[0.26946085]</t>
-  </si>
-  <si>
-    <t>[0.03042852]</t>
-  </si>
-  <si>
-    <t>[0.02898122]</t>
-  </si>
-  <si>
-    <t>[0.01002999]</t>
-  </si>
-  <si>
-    <t>[0.03037891]</t>
-  </si>
-  <si>
-    <t>[0.02023231]</t>
-  </si>
-  <si>
-    <t>[0.00762287]</t>
-  </si>
-  <si>
-    <t>[0.0401947]</t>
-  </si>
-  <si>
-    <t>[0.06435452]</t>
-  </si>
-  <si>
-    <t>[0.03228283]</t>
-  </si>
-  <si>
-    <t>[0.04073322]</t>
-  </si>
-  <si>
-    <t>[0.04653024]</t>
-  </si>
-  <si>
-    <t>[0.02412079]</t>
-  </si>
-  <si>
-    <t>[0.05228206]</t>
-  </si>
-  <si>
-    <t>[0.02187532]</t>
-  </si>
-  <si>
-    <t>[0.11252339]</t>
-  </si>
-  <si>
-    <t>[0.04432101]</t>
-  </si>
-  <si>
-    <t>[0.02183122]</t>
-  </si>
-  <si>
-    <t>[0.10019993]</t>
-  </si>
-  <si>
-    <t>[0.098819]</t>
-  </si>
-  <si>
-    <t>[0.05602495]</t>
-  </si>
-  <si>
-    <t>[0.12328156]</t>
-  </si>
-  <si>
-    <t>[0.07140318]</t>
-  </si>
-  <si>
-    <t>[0.05937876]</t>
-  </si>
-  <si>
-    <t>[0.11179671]</t>
+    <t>[0.09756848]</t>
+  </si>
+  <si>
+    <t>[0.02793111]</t>
+  </si>
+  <si>
+    <t>[0.13935193]</t>
+  </si>
+  <si>
+    <t>[0.0623976]</t>
+  </si>
+  <si>
+    <t>[0.02447763]</t>
+  </si>
+  <si>
+    <t>[0.14800734]</t>
+  </si>
+  <si>
+    <t>[0.19027516]</t>
+  </si>
+  <si>
+    <t>[0.06407581]</t>
+  </si>
+  <si>
+    <t>[0.22515989]</t>
+  </si>
+  <si>
+    <t>[0.17634982]</t>
+  </si>
+  <si>
+    <t>[0.05948309]</t>
+  </si>
+  <si>
+    <t>[0.2645006]</t>
+  </si>
+  <si>
+    <t>[0.02875404]</t>
+  </si>
+  <si>
+    <t>[0.02399217]</t>
+  </si>
+  <si>
+    <t>[0.00946989]</t>
+  </si>
+  <si>
+    <t>[0.02978805]</t>
+  </si>
+  <si>
+    <t>[0.01899377]</t>
+  </si>
+  <si>
+    <t>[0.00717953]</t>
+  </si>
+  <si>
+    <t>[0.03563359]</t>
+  </si>
+  <si>
+    <t>[0.03838735]</t>
+  </si>
+  <si>
+    <t>[0.02190643]</t>
+  </si>
+  <si>
+    <t>[0.03613355]</t>
+  </si>
+  <si>
+    <t>[0.04517336]</t>
+  </si>
+  <si>
+    <t>[0.02315567]</t>
+  </si>
+  <si>
+    <t>[0.04820052]</t>
+  </si>
+  <si>
+    <t>[0.02142797]</t>
+  </si>
+  <si>
+    <t>[0.103719]</t>
+  </si>
+  <si>
+    <t>[0.04216308]</t>
+  </si>
+  <si>
+    <t>[0.0210499]</t>
+  </si>
+  <si>
+    <t>[0.09656322]</t>
+  </si>
+  <si>
+    <t>[0.06670645]</t>
+  </si>
+  <si>
+    <t>[0.04369146]</t>
+  </si>
+  <si>
+    <t>[0.11262068]</t>
+  </si>
+  <si>
+    <t>[0.06650029]</t>
+  </si>
+  <si>
+    <t>[0.04988869]</t>
+  </si>
+  <si>
+    <t>[0.1044356]</t>
   </si>
   <si>
     <t>[1.22301225]</t>
@@ -1394,16 +1388,16 @@
     <t>[0.57852953]</t>
   </si>
   <si>
-    <t>[0.81325791]</t>
-  </si>
-  <si>
-    <t>[0.44410381]</t>
-  </si>
-  <si>
-    <t>[0.59380161]</t>
-  </si>
-  <si>
-    <t>[0.621582]</t>
+    <t>[0.80474678]</t>
+  </si>
+  <si>
+    <t>[0.43966487]</t>
+  </si>
+  <si>
+    <t>[0.58027535]</t>
+  </si>
+  <si>
+    <t>[0.61787041]</t>
   </si>
   <si>
     <t>[1.08105438]</t>
@@ -1412,124 +1406,124 @@
     <t>[1.11873893]</t>
   </si>
   <si>
-    <t>[0.77535697]</t>
+    <t>[0.72083577]</t>
   </si>
   <si>
     <t>[0.86638148]</t>
   </si>
   <si>
-    <t>[0.85741916]</t>
+    <t>[0.8559281]</t>
   </si>
   <si>
     <t>[1.18084351]</t>
   </si>
   <si>
-    <t>[-5.20798594]</t>
-  </si>
-  <si>
-    <t>[0.30028083]</t>
-  </si>
-  <si>
-    <t>[17.2107581]</t>
-  </si>
-  <si>
-    <t>[-3.44685798]</t>
-  </si>
-  <si>
-    <t>[0.26646463]</t>
-  </si>
-  <si>
-    <t>[26.6233532]</t>
-  </si>
-  <si>
-    <t>[-12.64917189]</t>
-  </si>
-  <si>
-    <t>[0.82031962]</t>
-  </si>
-  <si>
-    <t>[31.5787169]</t>
-  </si>
-  <si>
-    <t>[-9.91776232]</t>
-  </si>
-  <si>
-    <t>[0.71697726]</t>
-  </si>
-  <si>
-    <t>[61.66206198]</t>
-  </si>
-  <si>
-    <t>[7042.08220126]</t>
-  </si>
-  <si>
-    <t>[-1189.49584097]</t>
-  </si>
-  <si>
-    <t>[-981.59868628]</t>
-  </si>
-  <si>
-    <t>[1319.24442298]</t>
-  </si>
-  <si>
-    <t>[-3957.06350821]</t>
-  </si>
-  <si>
-    <t>[-1028.65259605]</t>
-  </si>
-  <si>
-    <t>[1675.41447147]</t>
-  </si>
-  <si>
-    <t>[-2513.6629052]</t>
-  </si>
-  <si>
-    <t>[21202.41603158]</t>
-  </si>
-  <si>
-    <t>[1140.4266502]</t>
-  </si>
-  <si>
-    <t>[11258.21045838]</t>
-  </si>
-  <si>
-    <t>[-9065.26874449]</t>
-  </si>
-  <si>
-    <t>[1640.73978905]</t>
-  </si>
-  <si>
-    <t>[4985.23561201]</t>
-  </si>
-  <si>
-    <t>[6754.84871795]</t>
-  </si>
-  <si>
-    <t>[1493.96980682]</t>
-  </si>
-  <si>
-    <t>[8898.87886198]</t>
-  </si>
-  <si>
-    <t>[6292.24994457]</t>
-  </si>
-  <si>
-    <t>[2892.25249444]</t>
-  </si>
-  <si>
-    <t>[20727.60403265]</t>
-  </si>
-  <si>
-    <t>[4157.86920371]</t>
-  </si>
-  <si>
-    <t>[2978.3374402]</t>
-  </si>
-  <si>
-    <t>[68522.2021113]</t>
-  </si>
-  <si>
-    <t>[6265.19702952]</t>
+    <t>[-5.15377721]</t>
+  </si>
+  <si>
+    <t>[0.29639718]</t>
+  </si>
+  <si>
+    <t>[16.57623235]</t>
+  </si>
+  <si>
+    <t>[-3.38411264]</t>
+  </si>
+  <si>
+    <t>[0.25898202]</t>
+  </si>
+  <si>
+    <t>[26.61045233]</t>
+  </si>
+  <si>
+    <t>[-9.65336093]</t>
+  </si>
+  <si>
+    <t>[0.68084578]</t>
+  </si>
+  <si>
+    <t>[31.26593066]</t>
+  </si>
+  <si>
+    <t>[-9.66748646]</t>
+  </si>
+  <si>
+    <t>[0.6287619]</t>
+  </si>
+  <si>
+    <t>[60.13447705]</t>
+  </si>
+  <si>
+    <t>[-9659.96549565]</t>
+  </si>
+  <si>
+    <t>[-16122.5219816]</t>
+  </si>
+  <si>
+    <t>[-1008.3912414]</t>
+  </si>
+  <si>
+    <t>[1535.85692728]</t>
+  </si>
+  <si>
+    <t>[-2949.35359921]</t>
+  </si>
+  <si>
+    <t>[-763.94151585]</t>
+  </si>
+  <si>
+    <t>[1045.48526511]</t>
+  </si>
+  <si>
+    <t>[-10148.96846185]</t>
+  </si>
+  <si>
+    <t>[-2037.44382736]</t>
+  </si>
+  <si>
+    <t>[2963.07455146]</t>
+  </si>
+  <si>
+    <t>[8219.66627765]</t>
+  </si>
+  <si>
+    <t>[6708.22724051]</t>
+  </si>
+  <si>
+    <t>[946.79305596]</t>
+  </si>
+  <si>
+    <t>[3483.00865277]</t>
+  </si>
+  <si>
+    <t>[1478.63537237]</t>
+  </si>
+  <si>
+    <t>[1244.75461276]</t>
+  </si>
+  <si>
+    <t>[10155.75775235]</t>
+  </si>
+  <si>
+    <t>[2654.50422685]</t>
+  </si>
+  <si>
+    <t>[6541.94462759]</t>
+  </si>
+  <si>
+    <t>[-4767.00875834]</t>
+  </si>
+  <si>
+    <t>[5070.70369357]</t>
+  </si>
+  <si>
+    <t>[1850.17101573]</t>
+  </si>
+  <si>
+    <t>[26298.68025223]</t>
+  </si>
+  <si>
+    <t>[14951.31278131]</t>
   </si>
   <si>
     <t>[5.9173074]</t>
@@ -1538,16 +1532,16 @@
     <t>[-1.64887521]</t>
   </si>
   <si>
-    <t>[-2.1374629]</t>
-  </si>
-  <si>
-    <t>[2.26556208]</t>
-  </si>
-  <si>
-    <t>[-1.6190833]</t>
-  </si>
-  <si>
-    <t>[-1.65262435]</t>
+    <t>[-2.11540539]</t>
+  </si>
+  <si>
+    <t>[2.24300464]</t>
+  </si>
+  <si>
+    <t>[-1.58254751]</t>
+  </si>
+  <si>
+    <t>[-1.64264625]</t>
   </si>
   <si>
     <t>[7.04169935]</t>
@@ -1556,13 +1550,13 @@
     <t>[-3.75273571]</t>
   </si>
   <si>
-    <t>[-2.36351198]</t>
+    <t>[-2.19559661]</t>
   </si>
   <si>
     <t>[6.03015733]</t>
   </si>
   <si>
-    <t>[-2.74594894]</t>
+    <t>[-2.74126954]</t>
   </si>
   <si>
     <t>[-3.64847319]</t>
@@ -1978,13 +1972,13 @@
         <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2007,13 +2001,13 @@
         <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2036,13 +2030,13 @@
         <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2065,13 +2059,13 @@
         <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2094,13 +2088,13 @@
         <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2123,13 +2117,13 @@
         <v>133</v>
       </c>
       <c r="G7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2152,13 +2146,13 @@
         <v>134</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2181,13 +2175,13 @@
         <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2210,13 +2204,13 @@
         <v>136</v>
       </c>
       <c r="G10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2239,13 +2233,13 @@
         <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2268,13 +2262,13 @@
         <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2297,13 +2291,13 @@
         <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2326,13 +2320,13 @@
         <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2355,13 +2349,13 @@
         <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2384,13 +2378,13 @@
         <v>142</v>
       </c>
       <c r="G16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2413,13 +2407,13 @@
         <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2442,13 +2436,13 @@
         <v>144</v>
       </c>
       <c r="G18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2471,13 +2465,13 @@
         <v>145</v>
       </c>
       <c r="G19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2500,13 +2494,13 @@
         <v>146</v>
       </c>
       <c r="G20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2529,13 +2523,13 @@
         <v>147</v>
       </c>
       <c r="G21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2558,13 +2552,13 @@
         <v>148</v>
       </c>
       <c r="G22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2584,16 +2578,16 @@
         <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2613,16 +2607,16 @@
         <v>102</v>
       </c>
       <c r="F24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2642,16 +2636,16 @@
         <v>103</v>
       </c>
       <c r="F25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I25" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2671,16 +2665,16 @@
         <v>104</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I26" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2700,16 +2694,16 @@
         <v>105</v>
       </c>
       <c r="F27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2729,16 +2723,16 @@
         <v>106</v>
       </c>
       <c r="F28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2758,16 +2752,16 @@
         <v>107</v>
       </c>
       <c r="F29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I29" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2787,16 +2781,16 @@
         <v>108</v>
       </c>
       <c r="F30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I30" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2816,16 +2810,16 @@
         <v>109</v>
       </c>
       <c r="F31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2845,16 +2839,16 @@
         <v>110</v>
       </c>
       <c r="F32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2874,16 +2868,16 @@
         <v>111</v>
       </c>
       <c r="F33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H33" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I33" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2903,16 +2897,16 @@
         <v>112</v>
       </c>
       <c r="F34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2932,16 +2926,16 @@
         <v>113</v>
       </c>
       <c r="F35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H35" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I35" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2961,16 +2955,16 @@
         <v>114</v>
       </c>
       <c r="F36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H36" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2990,16 +2984,16 @@
         <v>115</v>
       </c>
       <c r="F37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H37" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I37" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3019,16 +3013,16 @@
         <v>116</v>
       </c>
       <c r="F38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3048,16 +3042,16 @@
         <v>117</v>
       </c>
       <c r="F39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I39" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3077,16 +3071,16 @@
         <v>118</v>
       </c>
       <c r="F40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I40" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3106,16 +3100,16 @@
         <v>119</v>
       </c>
       <c r="F41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H41" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I41" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3135,16 +3129,16 @@
         <v>120</v>
       </c>
       <c r="F42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I42" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3164,16 +3158,16 @@
         <v>121</v>
       </c>
       <c r="F43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H43" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I43" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3193,16 +3187,16 @@
         <v>122</v>
       </c>
       <c r="F44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G44" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="H44" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I44" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3222,16 +3216,16 @@
         <v>123</v>
       </c>
       <c r="F45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H45" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I45" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3251,16 +3245,16 @@
         <v>124</v>
       </c>
       <c r="F46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G46" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H46" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I46" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3280,16 +3274,16 @@
         <v>125</v>
       </c>
       <c r="F47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H47" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I47" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3309,16 +3303,16 @@
         <v>126</v>
       </c>
       <c r="F48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G48" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H48" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I48" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3338,16 +3332,16 @@
         <v>127</v>
       </c>
       <c r="F49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G49" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H49" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I49" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3370,13 +3364,13 @@
         <v>128</v>
       </c>
       <c r="G50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H50" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I50" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3399,13 +3393,13 @@
         <v>129</v>
       </c>
       <c r="G51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H51" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I51" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3428,13 +3422,13 @@
         <v>130</v>
       </c>
       <c r="G52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H52" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I52" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3457,13 +3451,13 @@
         <v>131</v>
       </c>
       <c r="G53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H53" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I53" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3486,13 +3480,13 @@
         <v>132</v>
       </c>
       <c r="G54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H54" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I54" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3515,13 +3509,13 @@
         <v>133</v>
       </c>
       <c r="G55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H55" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I55" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3544,13 +3538,13 @@
         <v>134</v>
       </c>
       <c r="G56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H56" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I56" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3573,13 +3567,13 @@
         <v>135</v>
       </c>
       <c r="G57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I57" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3602,13 +3596,13 @@
         <v>136</v>
       </c>
       <c r="G58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H58" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I58" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3631,13 +3625,13 @@
         <v>137</v>
       </c>
       <c r="G59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H59" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I59" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3660,13 +3654,13 @@
         <v>138</v>
       </c>
       <c r="G60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H60" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I60" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3689,13 +3683,13 @@
         <v>139</v>
       </c>
       <c r="G61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H61" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I61" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3718,13 +3712,13 @@
         <v>140</v>
       </c>
       <c r="G62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H62" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I62" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3747,13 +3741,13 @@
         <v>141</v>
       </c>
       <c r="G63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H63" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I63" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3776,13 +3770,13 @@
         <v>142</v>
       </c>
       <c r="G64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H64" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I64" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3805,13 +3799,13 @@
         <v>143</v>
       </c>
       <c r="G65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H65" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I65" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3834,13 +3828,13 @@
         <v>144</v>
       </c>
       <c r="G66" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H66" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I66" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3863,13 +3857,13 @@
         <v>145</v>
       </c>
       <c r="G67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H67" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I67" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3892,13 +3886,13 @@
         <v>146</v>
       </c>
       <c r="G68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H68" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I68" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3921,13 +3915,13 @@
         <v>147</v>
       </c>
       <c r="G69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H69" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I69" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3950,13 +3944,13 @@
         <v>148</v>
       </c>
       <c r="G70" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H70" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I70" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3976,16 +3970,16 @@
         <v>101</v>
       </c>
       <c r="F71" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G71" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H71" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I71" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -4005,16 +3999,16 @@
         <v>102</v>
       </c>
       <c r="F72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G72" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H72" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I72" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4034,16 +4028,16 @@
         <v>103</v>
       </c>
       <c r="F73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H73" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I73" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4063,16 +4057,16 @@
         <v>104</v>
       </c>
       <c r="F74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H74" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I74" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4092,16 +4086,16 @@
         <v>105</v>
       </c>
       <c r="F75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H75" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I75" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4121,16 +4115,16 @@
         <v>106</v>
       </c>
       <c r="F76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H76" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I76" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4150,16 +4144,16 @@
         <v>107</v>
       </c>
       <c r="F77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H77" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I77" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4179,16 +4173,16 @@
         <v>108</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H78" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I78" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4208,16 +4202,16 @@
         <v>109</v>
       </c>
       <c r="F79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H79" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I79" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4237,16 +4231,16 @@
         <v>110</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H80" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I80" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4266,16 +4260,16 @@
         <v>111</v>
       </c>
       <c r="F81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H81" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I81" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4295,16 +4289,16 @@
         <v>112</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G82" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H82" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I82" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4324,16 +4318,16 @@
         <v>113</v>
       </c>
       <c r="F83" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G83" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H83" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I83" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4353,16 +4347,16 @@
         <v>114</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H84" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I84" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4382,16 +4376,16 @@
         <v>115</v>
       </c>
       <c r="F85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H85" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I85" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4411,16 +4405,16 @@
         <v>116</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G86" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H86" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I86" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4440,16 +4434,16 @@
         <v>117</v>
       </c>
       <c r="F87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H87" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I87" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4469,16 +4463,16 @@
         <v>118</v>
       </c>
       <c r="F88" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H88" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I88" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4498,16 +4492,16 @@
         <v>119</v>
       </c>
       <c r="F89" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G89" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H89" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I89" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4527,16 +4521,16 @@
         <v>120</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H90" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I90" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4556,16 +4550,16 @@
         <v>121</v>
       </c>
       <c r="F91" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H91" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I91" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4585,16 +4579,16 @@
         <v>122</v>
       </c>
       <c r="F92" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G92" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="H92" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I92" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4614,16 +4608,16 @@
         <v>123</v>
       </c>
       <c r="F93" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G93" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H93" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I93" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4643,16 +4637,16 @@
         <v>124</v>
       </c>
       <c r="F94" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G94" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H94" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I94" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4672,16 +4666,16 @@
         <v>125</v>
       </c>
       <c r="F95" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G95" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H95" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I95" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4701,16 +4695,16 @@
         <v>126</v>
       </c>
       <c r="F96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G96" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H96" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I96" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4730,16 +4724,16 @@
         <v>127</v>
       </c>
       <c r="F97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G97" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H97" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I97" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4762,13 +4756,13 @@
         <v>128</v>
       </c>
       <c r="G98" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H98" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I98" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4791,13 +4785,13 @@
         <v>129</v>
       </c>
       <c r="G99" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H99" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I99" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4820,13 +4814,13 @@
         <v>130</v>
       </c>
       <c r="G100" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H100" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I100" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4849,13 +4843,13 @@
         <v>131</v>
       </c>
       <c r="G101" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H101" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I101" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4878,13 +4872,13 @@
         <v>132</v>
       </c>
       <c r="G102" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H102" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I102" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4907,13 +4901,13 @@
         <v>133</v>
       </c>
       <c r="G103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H103" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I103" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4936,13 +4930,13 @@
         <v>134</v>
       </c>
       <c r="G104" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H104" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I104" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4965,13 +4959,13 @@
         <v>135</v>
       </c>
       <c r="G105" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H105" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I105" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4994,13 +4988,13 @@
         <v>136</v>
       </c>
       <c r="G106" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H106" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I106" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -5023,13 +5017,13 @@
         <v>137</v>
       </c>
       <c r="G107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H107" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I107" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -5052,13 +5046,13 @@
         <v>138</v>
       </c>
       <c r="G108" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H108" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I108" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -5081,13 +5075,13 @@
         <v>139</v>
       </c>
       <c r="G109" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H109" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I109" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -5110,13 +5104,13 @@
         <v>140</v>
       </c>
       <c r="G110" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H110" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I110" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -5139,13 +5133,13 @@
         <v>141</v>
       </c>
       <c r="G111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H111" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I111" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -5168,13 +5162,13 @@
         <v>142</v>
       </c>
       <c r="G112" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H112" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I112" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -5197,13 +5191,13 @@
         <v>143</v>
       </c>
       <c r="G113" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H113" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I113" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -5226,13 +5220,13 @@
         <v>144</v>
       </c>
       <c r="G114" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H114" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I114" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -5255,13 +5249,13 @@
         <v>145</v>
       </c>
       <c r="G115" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H115" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -5284,13 +5278,13 @@
         <v>146</v>
       </c>
       <c r="G116" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H116" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I116" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -5313,13 +5307,13 @@
         <v>147</v>
       </c>
       <c r="G117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H117" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I117" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5342,13 +5336,13 @@
         <v>148</v>
       </c>
       <c r="G118" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H118" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I118" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -5368,16 +5362,16 @@
         <v>101</v>
       </c>
       <c r="F119" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G119" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H119" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I119" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5397,16 +5391,16 @@
         <v>102</v>
       </c>
       <c r="F120" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H120" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I120" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5426,16 +5420,16 @@
         <v>103</v>
       </c>
       <c r="F121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G121" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H121" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I121" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -5455,16 +5449,16 @@
         <v>104</v>
       </c>
       <c r="F122" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G122" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H122" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I122" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5484,16 +5478,16 @@
         <v>105</v>
       </c>
       <c r="F123" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G123" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H123" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I123" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5513,16 +5507,16 @@
         <v>106</v>
       </c>
       <c r="F124" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G124" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H124" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I124" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -5542,16 +5536,16 @@
         <v>107</v>
       </c>
       <c r="F125" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H125" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I125" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -5571,16 +5565,16 @@
         <v>108</v>
       </c>
       <c r="F126" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G126" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H126" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I126" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5600,16 +5594,16 @@
         <v>109</v>
       </c>
       <c r="F127" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H127" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I127" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5629,16 +5623,16 @@
         <v>110</v>
       </c>
       <c r="F128" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G128" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I128" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5658,16 +5652,16 @@
         <v>111</v>
       </c>
       <c r="F129" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G129" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I129" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5687,16 +5681,16 @@
         <v>112</v>
       </c>
       <c r="F130" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G130" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I130" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5716,16 +5710,16 @@
         <v>113</v>
       </c>
       <c r="F131" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G131" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I131" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5745,16 +5739,16 @@
         <v>114</v>
       </c>
       <c r="F132" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G132" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I132" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5774,16 +5768,16 @@
         <v>115</v>
       </c>
       <c r="F133" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G133" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I133" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5803,16 +5797,16 @@
         <v>116</v>
       </c>
       <c r="F134" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G134" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H134" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I134" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5832,16 +5826,16 @@
         <v>117</v>
       </c>
       <c r="F135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G135" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H135" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I135" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5861,16 +5855,16 @@
         <v>118</v>
       </c>
       <c r="F136" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G136" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H136" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I136" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5890,16 +5884,16 @@
         <v>119</v>
       </c>
       <c r="F137" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G137" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I137" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5919,16 +5913,16 @@
         <v>120</v>
       </c>
       <c r="F138" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I138" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5948,16 +5942,16 @@
         <v>121</v>
       </c>
       <c r="F139" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G139" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H139" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I139" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5977,16 +5971,16 @@
         <v>122</v>
       </c>
       <c r="F140" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G140" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="H140" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I140" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -6006,16 +6000,16 @@
         <v>123</v>
       </c>
       <c r="F141" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G141" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H141" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I141" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -6035,16 +6029,16 @@
         <v>124</v>
       </c>
       <c r="F142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G142" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H142" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I142" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -6064,16 +6058,16 @@
         <v>125</v>
       </c>
       <c r="F143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G143" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H143" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I143" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -6093,16 +6087,16 @@
         <v>126</v>
       </c>
       <c r="F144" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G144" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H144" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I144" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -6122,16 +6116,16 @@
         <v>127</v>
       </c>
       <c r="F145" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G145" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H145" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I145" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/Results/results_df.xlsx
+++ b/Results/results_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="263">
   <si>
     <t>Folder_name</t>
   </si>
@@ -52,1067 +52,307 @@
     <t>003</t>
   </si>
   <si>
-    <t>Accelerometer.csv</t>
-  </si>
-  <si>
-    <t>Gyroscope.csv</t>
-  </si>
-  <si>
-    <t>Linear Acceleration.csv</t>
-  </si>
-  <si>
-    <t>Magnetometer.csv</t>
-  </si>
-  <si>
-    <t>Time (s)    3.001947
-Name: 2483, dtype: float64</t>
-  </si>
-  <si>
-    <t>Time (s)    33.002186
-Name: 27567, dtype: float64</t>
-  </si>
-  <si>
-    <t>Time (s)    63.002093
-Name: 52655, dtype: float64</t>
-  </si>
-  <si>
-    <t>Time (s)    93.002181
-Name: 77743, dtype: float64</t>
-  </si>
-  <si>
-    <t>Time (s)    3.001717
-Name: 2488, dtype: float64</t>
-  </si>
-  <si>
-    <t>Time (s)    33.001956
-Name: 27575, dtype: float64</t>
-  </si>
-  <si>
-    <t>Time (s)    63.001863
-Name: 52664, dtype: float64</t>
-  </si>
-  <si>
-    <t>Time (s)    93.001951
-Name: 77760, dtype: float64</t>
-  </si>
-  <si>
-    <t>Time (s)    3.00947
-Name: 621, dtype: float64</t>
-  </si>
-  <si>
-    <t>Time (s)    33.00732
-Name: 6888, dtype: float64</t>
-  </si>
-  <si>
-    <t>Time (s)    63.007227
-Name: 13157, dtype: float64</t>
-  </si>
-  <si>
-    <t>Time (s)    93.00612
-Name: 19427, dtype: float64</t>
-  </si>
-  <si>
-    <t>Time (s)    3.019454
-Name: 296, dtype: float64</t>
-  </si>
-  <si>
-    <t>Time (s)    33.010383
-Name: 3287, dtype: float64</t>
-  </si>
-  <si>
-    <t>Time (s)    63.010093
-Name: 6280, dtype: float64</t>
-  </si>
-  <si>
-    <t>Time (s)    93.017693
-Name: 9275, dtype: float64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Acceleration x (m/s^2)
-2482                -1.775474
-2483                -1.775474
-2484                -1.789831
-2485                -1.792224
-2486                -1.794617
-...                       ...
-22571               -1.825724
-22572               -1.820938
-22573               -1.813760
-22574               -1.804188
-22575               -1.806581
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Acceleration y (m/s^2)
-2482                 9.442079
-2483                 9.437292
-2484                 9.434899
-2485                 9.427721
-2486                 9.420543
-...                       ...
-22571                9.430114
-22572                9.437292
-22573                9.446864
-22574                9.439685
-22575                9.432507
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Acceleration z (m/s^2)
-2482                 0.835095
-2483                 0.832702
-2484                 0.835095
-2485                 0.830309
-2486                 0.823131
-...                       ...
-22571                0.890130
-22572                0.887737
-22573                0.894916
-22574                0.902094
-22575                0.904487
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Acceleration x (m/s^2)
-27566               -1.804188
-27567               -1.811367
-27568               -1.816152
-27569               -1.842473
-27570               -1.854438
-...                       ...
-47655               -1.801795
-47656               -1.797010
-47657               -1.799403
-47658               -1.801795
-47659               -1.806581
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Acceleration y (m/s^2)
-27566                9.418150
-27567                9.425328
-27568                9.422935
-27569                9.415757
-27570                9.415757
-...                       ...
-47655                9.451650
-47656                9.449257
-47657                9.451650
-47658                9.456435
-47659                9.456435
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Acceleration z (m/s^2)
-27566                0.617348
-27567                0.607777
-27568                0.593420
-27569                0.574277
-27570                0.564706
-...                       ...
-47655                0.133998
-47656                0.122034
-47657                0.112463
-47658                0.117248
-47659                0.131605
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Acceleration x (m/s^2)
-52654               -2.215754
-52655               -2.220539
-52656               -2.218147
-52657               -2.218147
-52658               -2.227718
-...                       ...
-72743               -1.993221
-72744               -1.990828
-72745               -1.988436
-72746               -1.988436
-72747               -1.986043
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Acceleration y (m/s^2)
-52654                9.351151
-52655                9.355937
-52656                9.355937
-52657                9.355937
-52658                9.348758
-...                       ...
-72743                9.463614
-72744                9.461221
-72745                9.449257
-72746                9.456435
-72747                9.468399
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Acceleration z (m/s^2)
-52654                1.095913
-52655                1.091127
-52656                1.088734
-52657                1.095913
-52658                1.098306
-...                       ...
-72743                0.744168
-72744                0.729811
-72745                0.713061
-72746                0.679562
-72747                0.626920
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Acceleration x (m/s^2)
-77742               -1.933401
-77743               -1.940579
-77744               -1.952543
-77745               -1.969293
-77746               -1.978864
-...                       ...
-97831               -1.897508
-97832               -1.892723
-97833               -1.895115
-97834               -1.902294
-97835               -1.897508
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Acceleration y (m/s^2)
-77742                9.473185
-77743                9.475577
-77744                9.475577
-77745                9.470792
-77746                9.466006
-...                       ...
-97831                9.410972
-97832                9.401401
-97833                9.408579
-97834                9.413364
-97835                9.415757
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Acceleration z (m/s^2)
-77742                0.796810
-77743                0.794417
-77744                0.789631
-77745                0.787239
-77746                0.780060
-...                       ...
-97831               -0.074178
-97832               -0.081356
-97833               -0.083749
-97834               -0.088534
-97835               -0.102891
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Gyroscope x (rad/s)
-2487             -0.008705
-2488             -0.009316
-2489             -0.008705
-2490             -0.003818
-2491             -0.007483
-...                    ...
-22576             0.003512
-22577             0.002291
-22578            -0.000764
-22579             0.000458
-22580             0.001680
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Gyroscope y (rad/s)
-2487             -0.004658
-2488             -0.003436
-2489             -0.002825
-2490             -0.002214
-2491             -0.001604
-...                    ...
-22576             0.014890
-22577             0.015501
-22578             0.014890
-22579             0.016722
-22580             0.014890
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Gyroscope z (rad/s)
-2487             -0.003207
-2488              0.000458
-2489             -0.002596
-2490              0.001069
-2491             -0.000153
-...                    ...
-22576             0.014508
-22577             0.011454
-22578             0.013286
-22579             0.011454
-22580             0.013286
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Gyroscope x (rad/s)
-27574             0.051160
-27575             0.045662
-27576             0.041997
-27577             0.040775
-27578             0.038332
-...                    ...
-47663             0.061545
-47664             0.058490
-47665             0.055436
-47666             0.052993
-47667             0.050549
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Gyroscope y (rad/s)
-27574            -0.026649
-27575            -0.030314
-27576            -0.030314
-27577            -0.032147
-27578            -0.031536
-...                    ...
-47663            -0.041310
-47664            -0.041921
-47665            -0.042531
-47666            -0.042531
-47667            -0.044364
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Gyroscope z (rad/s)
-27574            -0.015424
-27575            -0.016035
-27576            -0.015424
-27577            -0.017257
-27578            -0.013592
-...                    ...
-47663            -0.011148
-47664            -0.011148
-47665            -0.014203
-47666            -0.011759
-47667            -0.012370
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Gyroscope x (rad/s)
-52663             0.009621
-52664             0.009010
-52665             0.007789
-52666             0.005956
-52667             0.005956
-...                    ...
-72752             0.030391
-72753             0.036499
-72754             0.036499
-72755             0.036499
-72756             0.040164
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Gyroscope y (rad/s)
-52663            -0.024206
-52664            -0.020540
-52665            -0.024206
-52666            -0.021762
-52667            -0.022373
-...                    ...
-72752             0.008781
-72753             0.009392
-72754             0.009392
-72755             0.013057
-72756             0.014279
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Gyroscope z (rad/s)
-52663            -0.006872
-52664            -0.008094
-52665            -0.008705
-52666            -0.004429
-52667            -0.008094
-...                    ...
-72752            -0.022755
-72753            -0.023976
-72754            -0.021533
-72755            -0.024587
-72756            -0.022144
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Gyroscope x (rad/s)
-77759             0.027947
-77760             0.024893
-77761             0.028558
-77762             0.029169
-77763             0.025504
-...                    ...
-97848             0.015730
-97849             0.014508
-97850             0.011454
-97851             0.012675
-97852             0.018173
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Gyroscope y (rad/s)
-77759            -0.022373
-77760            -0.021151
-77761            -0.020540
-77762            -0.017486
-77763            -0.014432
-...                    ...
-97848             0.042379
-97849             0.039935
-97850             0.041157
-97851             0.041768
-97852             0.036270
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Gyroscope z (rad/s)
-77759            -0.016646
-77760            -0.017868
-77761            -0.018479
-77762            -0.017257
-77763            -0.016646
-...                    ...
-97848             0.006567
-97849             0.005956
-97850             0.007178
-97851             0.007178
-97852             0.010843
-[20094 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Linear Acceleration x (m/s^2)
-620                        0.017817
-621                        0.005257
-622                        0.028328
-623                        0.031589
-624                        0.021766
-...                             ...
-5638                      -0.048804
-5639                      -0.042267
-5640                      -0.030475
-5641                       0.002527
-5642                       0.014476
-[5023 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Linear Acceleration y (m/s^2)
-620                       -0.007160
-621                       -0.020709
-622                       -0.011622
-623                       -0.016850
-624                       -0.003643
-...                             ...
-5638                       0.010546
-5639                       0.005599
-5640                       0.016109
-5641                      -0.007277
-5642                       0.003349
-[5023 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Linear Acceleration z (m/s^2)
-620                        0.030768
-621                        0.024862
-622                        0.020262
-623                        0.015036
-624                       -0.015088
-...                             ...
-5638                      -0.025820
-5639                      -0.021658
-5640                      -0.028185
-5641                      -0.011684
-5642                       0.002234
-[5023 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Linear Acceleration x (m/s^2)
-6887                        0.011802
-6888                       -0.040542
-6889                       -0.091322
-6890                       -0.157793
-6891                       -0.193652
-...                              ...
-11906                      -0.053952
-11907                      -0.012639
-11908                       0.007686
-11909                       0.034804
-11910                       0.043873
-[5024 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Linear Acceleration y (m/s^2)
-6887                       -0.024446
-6888                       -0.031941
-6889                       -0.035765
-6890                       -0.038949
-6891                       -0.033216
-...                              ...
-11906                       0.033267
-11907                       0.017561
-11908                       0.008536
-11909                      -0.004576
-11910                      -0.007478
-[5024 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Linear Acceleration z (m/s^2)
-6887                       -0.156629
-6888                       -0.205783
-6889                       -0.236316
-6890                       -0.248017
-6891                       -0.239804
-...                              ...
-11906                      -0.014432
-11907                      -0.099822
-11908                      -0.179773
-11909                      -0.209773
-11910                      -0.212170
-[5024 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Linear Acceleration x (m/s^2)
-13156                      -0.009959
-13157                      -0.019115
-13158                      -0.024701
-13159                      -0.014276
-13160                      -0.015192
-...                              ...
-18175                       0.008707
-18176                      -0.003424
-18177                      -0.012426
-18178                      -0.002951
-18179                      -0.002379
-[5024 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Linear Acceleration y (m/s^2)
-13156                       0.028361
-13157                       0.022243
-13158                      -0.005192
-13159                       0.009715
-13160                      -0.003959
-...                              ...
-18175                       0.035138
-18176                       0.045034
-18177                       0.054255
-18178                       0.052712
-18179                       0.045835
-[5024 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Linear Acceleration z (m/s^2)
-13156                      -0.018846
-13157                      -0.011487
-13158                      -0.007206
-13159                      -0.014870
-13160                       0.004699
-...                              ...
-18175                       0.025322
-18176                       0.016929
-18177                       0.018871
-18178                      -0.001613
-18179                      -0.095767
-[5024 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Linear Acceleration x (m/s^2)
-19426                       0.035572
-19427                      -0.004951
-19428                      -0.026154
-19429                      -0.025319
-19430                      -0.020993
-...                              ...
-24445                       0.117860
-24446                       0.079637
-24447                       0.048325
-24448                       0.027414
-24449                       0.020900
-[5024 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Linear Acceleration y (m/s^2)
-19426                       0.051807
-19427                       0.056179
-19428                       0.057538
-19429                       0.060037
-19430                       0.068439
-...                              ...
-24445                      -0.084141
-24446                      -0.071670
-24447                      -0.058697
-24448                      -0.045819
-24449                      -0.050850
-[5024 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Linear Acceleration z (m/s^2)
-19426                       0.044506
-19427                       0.036366
-19428                       0.004696
-19429                      -0.007519
-19430                      -0.003666
-...                              ...
-24445                      -0.048478
-24446                      -0.076380
-24447                      -0.088466
-24448                      -0.083165
-24449                      -0.102203
-[5024 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Magnetic field x (µT)
-295               19.368752
-296               18.918751
-297               19.012501
-298               19.350000
-299               19.368752
-...                     ...
-2690              18.693750
-2691              18.768751
-2692              18.787500
-2693              18.637501
-2694              18.600000
-[2400 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Magnetic field y (µT)
-295              -35.100002
-296              -35.250000
-297              -35.625000
-298              -35.643753
-299              -35.643753
-...                     ...
-2690             -36.056252
-2691             -35.775002
-2692             -35.418751
-2693             -35.737503
-2694             -35.662502
-[2400 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Magnetic field z (µT)
-295              -37.818752
-296              -37.781250
-297              -38.118752
-298              -38.006252
-299              -38.175003
-...                     ...
-2690             -39.806252
-2691             -39.393753
-2692             -39.431252
-2693             -39.656250
-2694             -39.768753
-[2400 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Magnetic field x (µT)
-3286              18.843750
-3287              18.637501
-3288              18.375000
-3289              18.618752
-3290              18.468750
-...                     ...
-5681              19.743752
-5682              19.725000
-5683              19.593750
-5684              19.481251
-5685              19.518751
-[2400 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Magnetic field y (µT)
-3286             -35.343750
-3287             -35.381252
-3288             -35.493752
-3289             -35.250000
-3290             -35.493752
-...                     ...
-5681             -37.125000
-5682             -36.975002
-5683             -37.331253
-5684             -37.406250
-5685             -37.368752
-[2400 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Magnetic field z (µT)
-3286             -39.168751
-3287             -38.906250
-3288             -38.756252
-3289             -38.587502
-3290             -38.381252
-...                     ...
-5681             -36.431252
-5682             -36.675003
-5683             -36.862503
-5684             -36.637501
-5685             -36.412502
-[2400 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Magnetic field x (µT)
-6279              16.593750
-6280              16.800001
-6281              16.893751
-6282              16.668751
-6283              16.406250
-...                     ...
-8674              14.062501
-8675              14.118751
-8676              13.987500
-8677              14.100000
-8678              14.193750
-[2400 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Magnetic field y (µT)
-6279             -27.431252
-6280             -27.468752
-6281             -26.981251
-6282             -27.093752
-6283             -27.693750
-...                     ...
-8674             -29.531252
-8675             -29.700001
-8676             -29.775002
-8677             -29.700001
-8678             -29.512501
-[2400 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Magnetic field z (µT)
-6279             -33.825001
-6280             -33.975002
-6281             -33.356251
-6282             -33.262501
-6283             -33.768753
-...                     ...
-8674             -33.112503
-8675             -33.393753
-8676             -33.450001
-8677             -33.431252
-8678             -33.412502
-[2400 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Magnetic field x (µT)
-9274               15.337501
-9275               15.431251
-9276               15.618751
-9277               15.637501
-9278               15.675000
-...                      ...
-11669              15.431251
-11670              15.262501
-11671              15.225000
-11672              15.037500
-11673              15.168751
-[2400 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Magnetic field y (µT)
-9274              -29.812502
-9275              -29.756250
-9276              -29.550001
-9277              -29.643751
-9278              -29.606251
-...                      ...
-11669             -31.856251
-11670             -31.631250
-11671             -31.518751
-11672             -31.518751
-11673             -31.481251
-[2400 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Magnetic field z (µT)
-9274              -33.881252
-9275              -33.937500
-9276              -33.637501
-9277              -33.618752
-9278              -33.675003
-...                      ...
-11669             -29.531252
-11670             -29.512501
-11671             -29.625002
-11672             -29.793751
-11673             -29.737501
-[2400 rows x 1 columns]</t>
-  </si>
-  <si>
-    <t>[-1.89314501]</t>
-  </si>
-  <si>
-    <t>[9.42354258]</t>
-  </si>
-  <si>
-    <t>[0.84067312]</t>
-  </si>
-  <si>
-    <t>[-1.84383948]</t>
-  </si>
-  <si>
-    <t>[9.45147993]</t>
-  </si>
-  <si>
-    <t>[0.55620002]</t>
-  </si>
-  <si>
-    <t>[-1.97107678]</t>
-  </si>
-  <si>
-    <t>[9.4112071]</t>
-  </si>
-  <si>
-    <t>[0.72014454]</t>
-  </si>
-  <si>
-    <t>[-1.8241538]</t>
-  </si>
-  <si>
-    <t>[9.46035214]</t>
-  </si>
-  <si>
-    <t>[0.43984851]</t>
-  </si>
-  <si>
-    <t>[-0.00029766]</t>
-  </si>
-  <si>
-    <t>[-0.00014881]</t>
-  </si>
-  <si>
-    <t>[-0.00093911]</t>
-  </si>
-  <si>
-    <t>[0.00193951]</t>
-  </si>
-  <si>
-    <t>[-0.000644]</t>
-  </si>
-  <si>
-    <t>[-0.0009398]</t>
-  </si>
-  <si>
-    <t>[0.00340833]</t>
-  </si>
-  <si>
-    <t>[-0.00037824]</t>
-  </si>
-  <si>
-    <t>[-0.00107519]</t>
-  </si>
-  <si>
-    <t>[0.00121946]</t>
-  </si>
-  <si>
-    <t>[0.00054958]</t>
-  </si>
-  <si>
-    <t>[0.00034518]</t>
-  </si>
-  <si>
-    <t>[0.00509092]</t>
-  </si>
-  <si>
-    <t>[0.00061521]</t>
-  </si>
-  <si>
-    <t>[0.00701451]</t>
-  </si>
-  <si>
-    <t>[0.00338726]</t>
-  </si>
-  <si>
-    <t>[0.00020727]</t>
-  </si>
-  <si>
-    <t>[0.00363771]</t>
-  </si>
-  <si>
-    <t>[0.00101967]</t>
-  </si>
-  <si>
-    <t>[-0.00091654]</t>
-  </si>
-  <si>
-    <t>[0.00222101]</t>
-  </si>
-  <si>
-    <t>[0.00359428]</t>
-  </si>
-  <si>
-    <t>[0.0001897]</t>
-  </si>
-  <si>
-    <t>[0.0006985]</t>
+    <t>Accelerometer</t>
+  </si>
+  <si>
+    <t>Gyroscope</t>
+  </si>
+  <si>
+    <t>Linear Acceleration</t>
+  </si>
+  <si>
+    <t>Magnetometer</t>
+  </si>
+  <si>
+    <t>Condition 1</t>
+  </si>
+  <si>
+    <t>Condition 2</t>
+  </si>
+  <si>
+    <t>Condition 3</t>
+  </si>
+  <si>
+    <t>Condition 4</t>
+  </si>
+  <si>
+    <t>Dimension 1</t>
+  </si>
+  <si>
+    <t>Dimension 2</t>
+  </si>
+  <si>
+    <t>Dimension 3</t>
+  </si>
+  <si>
+    <t>[-1.89286141]</t>
+  </si>
+  <si>
+    <t>[9.4237884]</t>
+  </si>
+  <si>
+    <t>[0.84662527]</t>
+  </si>
+  <si>
+    <t>[-1.84333096]</t>
+  </si>
+  <si>
+    <t>[9.45145129]</t>
+  </si>
+  <si>
+    <t>[0.5576718]</t>
+  </si>
+  <si>
+    <t>[-1.98844782]</t>
+  </si>
+  <si>
+    <t>[9.4093846]</t>
+  </si>
+  <si>
+    <t>[0.72067905]</t>
+  </si>
+  <si>
+    <t>[-1.82842969]</t>
+  </si>
+  <si>
+    <t>[9.46120317]</t>
+  </si>
+  <si>
+    <t>[0.44915042]</t>
+  </si>
+  <si>
+    <t>[-0.0010929]</t>
+  </si>
+  <si>
+    <t>[-0.00033226]</t>
+  </si>
+  <si>
+    <t>[-0.00088488]</t>
+  </si>
+  <si>
+    <t>[0.00166339]</t>
+  </si>
+  <si>
+    <t>[-0.00064544]</t>
+  </si>
+  <si>
+    <t>[-0.00095322]</t>
+  </si>
+  <si>
+    <t>[0.00287764]</t>
+  </si>
+  <si>
+    <t>[-3.0758137e-05]</t>
+  </si>
+  <si>
+    <t>[6.94012088e-05]</t>
+  </si>
+  <si>
+    <t>[0.0004571]</t>
+  </si>
+  <si>
+    <t>[0.00085843]</t>
+  </si>
+  <si>
+    <t>[0.00065038]</t>
+  </si>
+  <si>
+    <t>[0.00619434]</t>
+  </si>
+  <si>
+    <t>[0.00052108]</t>
+  </si>
+  <si>
+    <t>[0.01645607]</t>
+  </si>
+  <si>
+    <t>[0.00391439]</t>
+  </si>
+  <si>
+    <t>[0.00017259]</t>
+  </si>
+  <si>
+    <t>[0.00898135]</t>
+  </si>
+  <si>
+    <t>[0.00126269]</t>
+  </si>
+  <si>
+    <t>[-0.00112767]</t>
+  </si>
+  <si>
+    <t>[0.00794059]</t>
+  </si>
+  <si>
+    <t>[0.00497071]</t>
+  </si>
+  <si>
+    <t>[-0.00029092]</t>
+  </si>
+  <si>
+    <t>[0.00343322]</t>
   </si>
   <si>
     <t>[20.6683914]</t>
   </si>
   <si>
-    <t>[-35.08631407]</t>
-  </si>
-  <si>
-    <t>[-38.04220141]</t>
-  </si>
-  <si>
-    <t>[19.60160304]</t>
-  </si>
-  <si>
-    <t>[-36.66716748]</t>
-  </si>
-  <si>
-    <t>[-37.61433196]</t>
-  </si>
-  <si>
-    <t>[15.35218031]</t>
+    <t>[-35.08492958]</t>
+  </si>
+  <si>
+    <t>[-38.03829354]</t>
+  </si>
+  <si>
+    <t>[19.60054536]</t>
+  </si>
+  <si>
+    <t>[-36.66507646]</t>
+  </si>
+  <si>
+    <t>[-37.61802918]</t>
+  </si>
+  <si>
+    <t>[15.34972174]</t>
   </si>
   <si>
     <t>[-29.81129022]</t>
   </si>
   <si>
-    <t>[-32.83097483]</t>
+    <t>[-32.85467074]</t>
   </si>
   <si>
     <t>[14.36747714]</t>
   </si>
   <si>
-    <t>[-31.22378459]</t>
-  </si>
-  <si>
-    <t>[-32.36541544]</t>
-  </si>
-  <si>
-    <t>[-2.18943262]</t>
-  </si>
-  <si>
-    <t>[9.33918667]</t>
-  </si>
-  <si>
-    <t>[0.40677986]</t>
-  </si>
-  <si>
-    <t>[-2.03389931]</t>
-  </si>
-  <si>
-    <t>[9.37747192]</t>
-  </si>
-  <si>
-    <t>[0.11246266]</t>
-  </si>
-  <si>
-    <t>[-2.52442789]</t>
-  </si>
-  <si>
-    <t>[9.1860466]</t>
-  </si>
-  <si>
-    <t>[0.03828516]</t>
-  </si>
-  <si>
-    <t>[-2.3641088]</t>
-  </si>
-  <si>
-    <t>[9.25783062]</t>
-  </si>
-  <si>
-    <t>[-0.37088752]</t>
-  </si>
-  <si>
-    <t>[-0.08994984]</t>
-  </si>
-  <si>
-    <t>[-0.08834632]</t>
-  </si>
-  <si>
-    <t>[-0.03069595]</t>
-  </si>
-  <si>
-    <t>[-0.08872811]</t>
-  </si>
-  <si>
-    <t>[-0.0608574]</t>
-  </si>
-  <si>
-    <t>[-0.02336558]</t>
-  </si>
-  <si>
-    <t>[-0.11804962]</t>
-  </si>
-  <si>
-    <t>[-0.19463679]</t>
-  </si>
-  <si>
-    <t>[-0.09605849]</t>
-  </si>
-  <si>
-    <t>[-0.1390481]</t>
+    <t>[-31.21775281]</t>
+  </si>
+  <si>
+    <t>[-32.41683034]</t>
+  </si>
+  <si>
+    <t>[-2.16550446]</t>
+  </si>
+  <si>
+    <t>[9.35354328]</t>
+  </si>
+  <si>
+    <t>[0.4977071]</t>
+  </si>
+  <si>
+    <t>[-2.00039983]</t>
+  </si>
+  <si>
+    <t>[9.38465023]</t>
+  </si>
+  <si>
+    <t>[0.14835501]</t>
+  </si>
+  <si>
+    <t>[-2.46460724]</t>
+  </si>
+  <si>
+    <t>[9.24586678]</t>
+  </si>
+  <si>
+    <t>[0.08614162]</t>
+  </si>
+  <si>
+    <t>[-2.2468605]</t>
+  </si>
+  <si>
+    <t>[9.31286526]</t>
+  </si>
+  <si>
+    <t>[-0.22492532]</t>
   </si>
   <si>
     <t>[-0.07223476]</t>
   </si>
   <si>
-    <t>[-0.15260923]</t>
-  </si>
-  <si>
-    <t>[-0.0651598]</t>
-  </si>
-  <si>
-    <t>[-0.33525199]</t>
-  </si>
-  <si>
-    <t>[-0.12993133]</t>
-  </si>
-  <si>
-    <t>[-0.0645256]</t>
-  </si>
-  <si>
-    <t>[-0.29863676]</t>
-  </si>
-  <si>
-    <t>[-0.28021419]</t>
-  </si>
-  <si>
-    <t>[-0.16741276]</t>
-  </si>
-  <si>
-    <t>[-0.3643041]</t>
-  </si>
-  <si>
-    <t>[-0.20990968]</t>
-  </si>
-  <si>
-    <t>[-0.17748165]</t>
-  </si>
-  <si>
-    <t>[-0.33242899]</t>
+    <t>[-0.05841395]</t>
+  </si>
+  <si>
+    <t>[-0.02703077]</t>
+  </si>
+  <si>
+    <t>[-0.0820086]</t>
+  </si>
+  <si>
+    <t>[-0.05291616]</t>
+  </si>
+  <si>
+    <t>[-0.01908952]</t>
+  </si>
+  <si>
+    <t>[-0.0905607]</t>
+  </si>
+  <si>
+    <t>[-0.0816268]</t>
+  </si>
+  <si>
+    <t>[-0.04046979]</t>
+  </si>
+  <si>
+    <t>[-0.08750638]</t>
+  </si>
+  <si>
+    <t>[-0.09262237]</t>
+  </si>
+  <si>
+    <t>[-0.057574]</t>
+  </si>
+  <si>
+    <t>[-0.1117568]</t>
+  </si>
+  <si>
+    <t>[-0.05600929]</t>
+  </si>
+  <si>
+    <t>[-0.21419233]</t>
+  </si>
+  <si>
+    <t>[-0.09907544]</t>
+  </si>
+  <si>
+    <t>[-0.05555725]</t>
+  </si>
+  <si>
+    <t>[-0.21994969]</t>
+  </si>
+  <si>
+    <t>[-0.15074778]</t>
+  </si>
+  <si>
+    <t>[-0.10699081]</t>
+  </si>
+  <si>
+    <t>[-0.25144279]</t>
+  </si>
+  <si>
+    <t>[-0.15535152]</t>
+  </si>
+  <si>
+    <t>[-0.11950779]</t>
+  </si>
+  <si>
+    <t>[-0.24045449]</t>
   </si>
   <si>
     <t>[17.96250153]</t>
   </si>
   <si>
-    <t>[-36.76875305]</t>
-  </si>
-  <si>
-    <t>[-40.46250153]</t>
-  </si>
-  <si>
-    <t>[18.35625076]</t>
-  </si>
-  <si>
-    <t>[-38.34375]</t>
-  </si>
-  <si>
-    <t>[-39.39375305]</t>
+    <t>[-36.69375229]</t>
+  </si>
+  <si>
+    <t>[-40.18125153]</t>
+  </si>
+  <si>
+    <t>[18.41250038]</t>
+  </si>
+  <si>
+    <t>[-38.23125076]</t>
+  </si>
+  <si>
+    <t>[-39.20625305]</t>
   </si>
   <si>
     <t>[12.69375038]</t>
@@ -1121,445 +361,448 @@
     <t>[-32.8125]</t>
   </si>
   <si>
-    <t>[-35.11875153]</t>
+    <t>[-34.61250305]</t>
   </si>
   <si>
     <t>[12.05625057]</t>
   </si>
   <si>
-    <t>[-33.76875305]</t>
+    <t>[-33.43125153]</t>
   </si>
   <si>
     <t>[-35.0625]</t>
   </si>
   <si>
-    <t>[-1.59840548]</t>
-  </si>
-  <si>
-    <t>[9.5066843]</t>
-  </si>
-  <si>
-    <t>[1.26819599]</t>
-  </si>
-  <si>
-    <t>[-1.65344048]</t>
-  </si>
-  <si>
-    <t>[9.52582741]</t>
+    <t>[-1.62233377]</t>
+  </si>
+  <si>
+    <t>[9.49472046]</t>
+  </si>
+  <si>
+    <t>[1.19401848]</t>
+  </si>
+  <si>
+    <t>[-1.68693995]</t>
+  </si>
+  <si>
+    <t>[9.51864815]</t>
   </si>
   <si>
     <t>[0.96191472]</t>
   </si>
   <si>
-    <t>[-1.20837545]</t>
-  </si>
-  <si>
-    <t>[9.64786053]</t>
-  </si>
-  <si>
-    <t>[1.38065863]</t>
-  </si>
-  <si>
-    <t>[-1.28255296]</t>
-  </si>
-  <si>
-    <t>[9.66221809]</t>
-  </si>
-  <si>
-    <t>[1.24187493]</t>
-  </si>
-  <si>
-    <t>[0.091477]</t>
-  </si>
-  <si>
-    <t>[0.08391755]</t>
-  </si>
-  <si>
-    <t>[0.02855793]</t>
-  </si>
-  <si>
-    <t>[0.0933096]</t>
-  </si>
-  <si>
-    <t>[0.06009382]</t>
-  </si>
-  <si>
-    <t>[0.02183842]</t>
-  </si>
-  <si>
-    <t>[0.1226311]</t>
-  </si>
-  <si>
-    <t>[0.18776456]</t>
-  </si>
-  <si>
-    <t>[0.09636392]</t>
-  </si>
-  <si>
-    <t>[0.12568542]</t>
-  </si>
-  <si>
-    <t>[0.13950625]</t>
-  </si>
-  <si>
-    <t>[0.06520981]</t>
-  </si>
-  <si>
-    <t>[0.15976]</t>
-  </si>
-  <si>
-    <t>[0.06563854]</t>
-  </si>
-  <si>
-    <t>[0.32276136]</t>
-  </si>
-  <si>
-    <t>[0.13543177]</t>
-  </si>
-  <si>
-    <t>[0.06569195]</t>
-  </si>
-  <si>
-    <t>[0.29938126]</t>
-  </si>
-  <si>
-    <t>[0.29520965]</t>
-  </si>
-  <si>
-    <t>[0.16808796]</t>
-  </si>
-  <si>
-    <t>[0.36862126]</t>
-  </si>
-  <si>
-    <t>[0.21439314]</t>
-  </si>
-  <si>
-    <t>[0.17414761]</t>
-  </si>
-  <si>
-    <t>[0.33650571]</t>
+    <t>[-1.48594284]</t>
+  </si>
+  <si>
+    <t>[9.57846928]</t>
+  </si>
+  <si>
+    <t>[1.35673046]</t>
+  </si>
+  <si>
+    <t>[-1.40458691]</t>
+  </si>
+  <si>
+    <t>[9.6071825]</t>
+  </si>
+  <si>
+    <t>[1.14137638]</t>
+  </si>
+  <si>
+    <t>[0.07131846]</t>
+  </si>
+  <si>
+    <t>[0.05581777]</t>
+  </si>
+  <si>
+    <t>[0.02611447]</t>
+  </si>
+  <si>
+    <t>[0.08597922]</t>
+  </si>
+  <si>
+    <t>[0.05154172]</t>
+  </si>
+  <si>
+    <t>[0.0169515]</t>
+  </si>
+  <si>
+    <t>[0.09697478]</t>
+  </si>
+  <si>
+    <t>[0.07903063]</t>
+  </si>
+  <si>
+    <t>[0.04199695]</t>
+  </si>
+  <si>
+    <t>[0.09269873]</t>
+  </si>
+  <si>
+    <t>[0.09491312]</t>
+  </si>
+  <si>
+    <t>[0.05665771]</t>
+  </si>
+  <si>
+    <t>[0.12208998]</t>
+  </si>
+  <si>
+    <t>[0.05689144]</t>
+  </si>
+  <si>
+    <t>[0.23296565]</t>
+  </si>
+  <si>
+    <t>[0.10521793]</t>
+  </si>
+  <si>
+    <t>[0.05576801]</t>
+  </si>
+  <si>
+    <t>[0.23081201]</t>
+  </si>
+  <si>
+    <t>[0.155792]</t>
+  </si>
+  <si>
+    <t>[0.10594082]</t>
+  </si>
+  <si>
+    <t>[0.26788598]</t>
+  </si>
+  <si>
+    <t>[0.16286159]</t>
+  </si>
+  <si>
+    <t>[0.11963367]</t>
+  </si>
+  <si>
+    <t>[0.24882379]</t>
   </si>
   <si>
     <t>[23.15625]</t>
   </si>
   <si>
-    <t>[-33.43125153]</t>
+    <t>[-33.48750305]</t>
   </si>
   <si>
     <t>[-35.98125076]</t>
   </si>
   <si>
-    <t>[20.88750076]</t>
-  </si>
-  <si>
-    <t>[-35.04375076]</t>
-  </si>
-  <si>
-    <t>[-35.75625229]</t>
+    <t>[20.79375076]</t>
+  </si>
+  <si>
+    <t>[-35.08125305]</t>
+  </si>
+  <si>
+    <t>[-36.01875305]</t>
+  </si>
+  <si>
+    <t>[18.13125038]</t>
   </si>
   <si>
     <t>[-26.81250191]</t>
   </si>
   <si>
-    <t>[-30.48750114]</t>
+    <t>[-31.05000114]</t>
   </si>
   <si>
     <t>[16.36875153]</t>
   </si>
   <si>
-    <t>[-28.72500038]</t>
-  </si>
-  <si>
-    <t>[-28.93125153]</t>
-  </si>
-  <si>
-    <t>[0.09756848]</t>
-  </si>
-  <si>
-    <t>[0.02793111]</t>
-  </si>
-  <si>
-    <t>[0.13935193]</t>
-  </si>
-  <si>
-    <t>[0.0623976]</t>
-  </si>
-  <si>
-    <t>[0.02447763]</t>
-  </si>
-  <si>
-    <t>[0.14800734]</t>
-  </si>
-  <si>
-    <t>[0.19027516]</t>
-  </si>
-  <si>
-    <t>[0.06407581]</t>
-  </si>
-  <si>
-    <t>[0.22515989]</t>
-  </si>
-  <si>
-    <t>[0.17634982]</t>
-  </si>
-  <si>
-    <t>[0.05948309]</t>
-  </si>
-  <si>
-    <t>[0.2645006]</t>
-  </si>
-  <si>
-    <t>[0.02875404]</t>
-  </si>
-  <si>
-    <t>[0.02399217]</t>
-  </si>
-  <si>
-    <t>[0.00946989]</t>
-  </si>
-  <si>
-    <t>[0.02978805]</t>
-  </si>
-  <si>
-    <t>[0.01899377]</t>
-  </si>
-  <si>
-    <t>[0.00717953]</t>
-  </si>
-  <si>
-    <t>[0.03563359]</t>
-  </si>
-  <si>
-    <t>[0.03838735]</t>
-  </si>
-  <si>
-    <t>[0.02190643]</t>
-  </si>
-  <si>
-    <t>[0.03613355]</t>
-  </si>
-  <si>
-    <t>[0.04517336]</t>
-  </si>
-  <si>
-    <t>[0.02315567]</t>
-  </si>
-  <si>
-    <t>[0.04820052]</t>
-  </si>
-  <si>
-    <t>[0.02142797]</t>
-  </si>
-  <si>
-    <t>[0.103719]</t>
-  </si>
-  <si>
-    <t>[0.04216308]</t>
-  </si>
-  <si>
-    <t>[0.0210499]</t>
-  </si>
-  <si>
-    <t>[0.09656322]</t>
-  </si>
-  <si>
-    <t>[0.06670645]</t>
-  </si>
-  <si>
-    <t>[0.04369146]</t>
-  </si>
-  <si>
-    <t>[0.11262068]</t>
-  </si>
-  <si>
-    <t>[0.06650029]</t>
-  </si>
-  <si>
-    <t>[0.04988869]</t>
-  </si>
-  <si>
-    <t>[0.1044356]</t>
+    <t>[-28.95000076]</t>
+  </si>
+  <si>
+    <t>[-29.40000153]</t>
+  </si>
+  <si>
+    <t>[0.09662198]</t>
+  </si>
+  <si>
+    <t>[0.02714347]</t>
+  </si>
+  <si>
+    <t>[0.13050475]</t>
+  </si>
+  <si>
+    <t>[0.05973809]</t>
+  </si>
+  <si>
+    <t>[0.02406725]</t>
+  </si>
+  <si>
+    <t>[0.14615309]</t>
+  </si>
+  <si>
+    <t>[0.16084565]</t>
+  </si>
+  <si>
+    <t>[0.06057791]</t>
+  </si>
+  <si>
+    <t>[0.22362294]</t>
+  </si>
+  <si>
+    <t>[0.16038963]</t>
+  </si>
+  <si>
+    <t>[0.0547118]</t>
+  </si>
+  <si>
+    <t>[0.25150342]</t>
+  </si>
+  <si>
+    <t>[0.02682623]</t>
+  </si>
+  <si>
+    <t>[0.02161118]</t>
+  </si>
+  <si>
+    <t>[0.00929514]</t>
+  </si>
+  <si>
+    <t>[0.02924073]</t>
+  </si>
+  <si>
+    <t>[0.01854716]</t>
+  </si>
+  <si>
+    <t>[0.00676348]</t>
+  </si>
+  <si>
+    <t>[0.03357685]</t>
+  </si>
+  <si>
+    <t>[0.02962862]</t>
+  </si>
+  <si>
+    <t>[0.01486922]</t>
+  </si>
+  <si>
+    <t>[0.03310125]</t>
+  </si>
+  <si>
+    <t>[0.03557069]</t>
+  </si>
+  <si>
+    <t>[0.02191144]</t>
+  </si>
+  <si>
+    <t>[0.04303555]</t>
+  </si>
+  <si>
+    <t>[0.02073811]</t>
+  </si>
+  <si>
+    <t>[0.08514289]</t>
+  </si>
+  <si>
+    <t>[0.03840458]</t>
+  </si>
+  <si>
+    <t>[0.02038908]</t>
+  </si>
+  <si>
+    <t>[0.08551272]</t>
+  </si>
+  <si>
+    <t>[0.05582652]</t>
+  </si>
+  <si>
+    <t>[0.0393366]</t>
+  </si>
+  <si>
+    <t>[0.09918811]</t>
+  </si>
+  <si>
+    <t>[0.05949952]</t>
+  </si>
+  <si>
+    <t>[0.04410679]</t>
+  </si>
+  <si>
+    <t>[0.0943935]</t>
   </si>
   <si>
     <t>[1.22301225]</t>
   </si>
   <si>
-    <t>[0.57852953]</t>
-  </si>
-  <si>
-    <t>[0.80474678]</t>
-  </si>
-  <si>
-    <t>[0.43966487]</t>
-  </si>
-  <si>
-    <t>[0.58027535]</t>
-  </si>
-  <si>
-    <t>[0.61787041]</t>
-  </si>
-  <si>
-    <t>[1.08105438]</t>
+    <t>[0.57503742]</t>
+  </si>
+  <si>
+    <t>[0.79971613]</t>
+  </si>
+  <si>
+    <t>[0.43450366]</t>
+  </si>
+  <si>
+    <t>[0.57596191]</t>
+  </si>
+  <si>
+    <t>[0.60972915]</t>
+  </si>
+  <si>
+    <t>[1.07814404]</t>
   </si>
   <si>
     <t>[1.11873893]</t>
   </si>
   <si>
-    <t>[0.72083577]</t>
+    <t>[0.64584765]</t>
   </si>
   <si>
     <t>[0.86638148]</t>
   </si>
   <si>
-    <t>[0.8559281]</t>
-  </si>
-  <si>
-    <t>[1.18084351]</t>
-  </si>
-  <si>
-    <t>[-5.15377721]</t>
-  </si>
-  <si>
-    <t>[0.29639718]</t>
-  </si>
-  <si>
-    <t>[16.57623235]</t>
-  </si>
-  <si>
-    <t>[-3.38411264]</t>
-  </si>
-  <si>
-    <t>[0.25898202]</t>
-  </si>
-  <si>
-    <t>[26.61045233]</t>
-  </si>
-  <si>
-    <t>[-9.65336093]</t>
-  </si>
-  <si>
-    <t>[0.68084578]</t>
-  </si>
-  <si>
-    <t>[31.26593066]</t>
-  </si>
-  <si>
-    <t>[-9.66748646]</t>
-  </si>
-  <si>
-    <t>[0.6287619]</t>
-  </si>
-  <si>
-    <t>[60.13447705]</t>
-  </si>
-  <si>
-    <t>[-9659.96549565]</t>
-  </si>
-  <si>
-    <t>[-16122.5219816]</t>
-  </si>
-  <si>
-    <t>[-1008.3912414]</t>
-  </si>
-  <si>
-    <t>[1535.85692728]</t>
-  </si>
-  <si>
-    <t>[-2949.35359921]</t>
-  </si>
-  <si>
-    <t>[-763.94151585]</t>
-  </si>
-  <si>
-    <t>[1045.48526511]</t>
-  </si>
-  <si>
-    <t>[-10148.96846185]</t>
-  </si>
-  <si>
-    <t>[-2037.44382736]</t>
-  </si>
-  <si>
-    <t>[2963.07455146]</t>
-  </si>
-  <si>
-    <t>[8219.66627765]</t>
-  </si>
-  <si>
-    <t>[6708.22724051]</t>
-  </si>
-  <si>
-    <t>[946.79305596]</t>
-  </si>
-  <si>
-    <t>[3483.00865277]</t>
-  </si>
-  <si>
-    <t>[1478.63537237]</t>
-  </si>
-  <si>
-    <t>[1244.75461276]</t>
-  </si>
-  <si>
-    <t>[10155.75775235]</t>
-  </si>
-  <si>
-    <t>[2654.50422685]</t>
-  </si>
-  <si>
-    <t>[6541.94462759]</t>
-  </si>
-  <si>
-    <t>[-4767.00875834]</t>
-  </si>
-  <si>
-    <t>[5070.70369357]</t>
-  </si>
-  <si>
-    <t>[1850.17101573]</t>
-  </si>
-  <si>
-    <t>[26298.68025223]</t>
-  </si>
-  <si>
-    <t>[14951.31278131]</t>
+    <t>[0.8380707]</t>
+  </si>
+  <si>
+    <t>[1.11782808]</t>
+  </si>
+  <si>
+    <t>[-5.10454587]</t>
+  </si>
+  <si>
+    <t>[0.28803142]</t>
+  </si>
+  <si>
+    <t>[15.41470053]</t>
+  </si>
+  <si>
+    <t>[-3.24076839]</t>
+  </si>
+  <si>
+    <t>[0.25464076]</t>
+  </si>
+  <si>
+    <t>[26.20772514]</t>
+  </si>
+  <si>
+    <t>[-8.08900515]</t>
+  </si>
+  <si>
+    <t>[0.64380309]</t>
+  </si>
+  <si>
+    <t>[31.02947712]</t>
+  </si>
+  <si>
+    <t>[-8.77198794]</t>
+  </si>
+  <si>
+    <t>[0.57827525]</t>
+  </si>
+  <si>
+    <t>[55.9953664]</t>
+  </si>
+  <si>
+    <t>[-2454.6012326]</t>
+  </si>
+  <si>
+    <t>[-6504.26299951]</t>
+  </si>
+  <si>
+    <t>[-1050.44210921]</t>
+  </si>
+  <si>
+    <t>[1757.90182534]</t>
+  </si>
+  <si>
+    <t>[-2873.55235511]</t>
+  </si>
+  <si>
+    <t>[-709.5382598]</t>
+  </si>
+  <si>
+    <t>[1166.81734249]</t>
+  </si>
+  <si>
+    <t>[-96327.74852903]</t>
+  </si>
+  <si>
+    <t>[21425.02002423]</t>
+  </si>
+  <si>
+    <t>[7241.50026473]</t>
+  </si>
+  <si>
+    <t>[4143.68126284]</t>
+  </si>
+  <si>
+    <t>[3369.03844563]</t>
+  </si>
+  <si>
+    <t>[694.75594813]</t>
+  </si>
+  <si>
+    <t>[3979.86387762]</t>
+  </si>
+  <si>
+    <t>[517.39517141]</t>
+  </si>
+  <si>
+    <t>[981.11254315]</t>
+  </si>
+  <si>
+    <t>[11813.83312112]</t>
+  </si>
+  <si>
+    <t>[952.11403311]</t>
+  </si>
+  <si>
+    <t>[4421.23858894]</t>
+  </si>
+  <si>
+    <t>[-3488.31308769]</t>
+  </si>
+  <si>
+    <t>[1249.12821208]</t>
+  </si>
+  <si>
+    <t>[1197.00338574]</t>
+  </si>
+  <si>
+    <t>[-15161.03928695]</t>
+  </si>
+  <si>
+    <t>[2749.41430364]</t>
   </si>
   <si>
     <t>[5.9173074]</t>
   </si>
   <si>
-    <t>[-1.64887521]</t>
-  </si>
-  <si>
-    <t>[-2.11540539]</t>
-  </si>
-  <si>
-    <t>[2.24300464]</t>
-  </si>
-  <si>
-    <t>[-1.58254751]</t>
-  </si>
-  <si>
-    <t>[-1.64264625]</t>
-  </si>
-  <si>
-    <t>[7.04169935]</t>
+    <t>[-1.63898697]</t>
+  </si>
+  <si>
+    <t>[-2.1023975]</t>
+  </si>
+  <si>
+    <t>[2.21679372]</t>
+  </si>
+  <si>
+    <t>[-1.57087333]</t>
+  </si>
+  <si>
+    <t>[-1.62084288]</t>
+  </si>
+  <si>
+    <t>[7.023867]</t>
   </si>
   <si>
     <t>[-3.75273571]</t>
   </si>
   <si>
-    <t>[-2.19559661]</t>
+    <t>[-1.96577119]</t>
   </si>
   <si>
     <t>[6.03015733]</t>
   </si>
   <si>
-    <t>[-2.74126954]</t>
-  </si>
-  <si>
-    <t>[-3.64847319]</t>
+    <t>[-2.6845965]</t>
+  </si>
+  <si>
+    <t>[-3.44829545]</t>
   </si>
 </sst>
 </file>
@@ -1963,22 +1206,22 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="H2" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="I2" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1992,22 +1235,22 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="H3" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="I3" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2021,22 +1264,22 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="H4" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="I4" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2050,22 +1293,22 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="H5" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="I5" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2079,22 +1322,22 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="H6" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="I6" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2108,22 +1351,22 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="H7" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="I7" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2137,22 +1380,22 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="H8" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="I8" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2166,22 +1409,22 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="H9" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="I9" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2195,22 +1438,22 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="H10" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="I10" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2224,22 +1467,22 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="H11" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="I11" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2253,22 +1496,22 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="H12" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="I12" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2282,22 +1525,22 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="H13" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="I13" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2308,25 +1551,25 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="H14" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="I14" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2337,25 +1580,25 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="H15" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="I15" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2366,25 +1609,25 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="H16" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="I16" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2395,25 +1638,25 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="H17" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="I17" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2424,25 +1667,25 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="H18" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="I18" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2453,25 +1696,25 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="H19" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="I19" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2482,25 +1725,25 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="H20" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="I20" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2511,25 +1754,25 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="H21" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="I21" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2540,25 +1783,25 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="H22" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="I22" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2569,25 +1812,25 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="H23" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="I23" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2598,25 +1841,25 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="H24" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="I24" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2627,25 +1870,25 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="H25" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="I25" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2656,25 +1899,25 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="H26" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="I26" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2685,25 +1928,25 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="H27" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="I27" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2714,25 +1957,25 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="G28" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="H28" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="I28" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2743,25 +1986,25 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="H29" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="I29" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2772,25 +2015,25 @@
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="G30" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="H30" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="I30" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2801,25 +2044,25 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="H31" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="I31" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2830,25 +2073,25 @@
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="G32" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="H32" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="I32" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2859,25 +2102,25 @@
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="G33" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="H33" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="I33" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2888,25 +2131,25 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="G34" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="H34" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="I34" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2917,25 +2160,25 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F35" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="G35" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="H35" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="I35" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2946,25 +2189,25 @@
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="F36" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="G36" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="H36" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="I36" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2975,25 +2218,25 @@
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="F37" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="G37" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="H37" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="I37" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3004,25 +2247,25 @@
         <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="G38" t="s">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="H38" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="I38" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3033,25 +2276,25 @@
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="F39" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="G39" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="H39" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="I39" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3062,25 +2305,25 @@
         <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="F40" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="G40" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H40" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="I40" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3091,25 +2334,25 @@
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="G41" t="s">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="H41" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="I41" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3120,25 +2363,25 @@
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="F42" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="G42" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="H42" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="I42" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3149,25 +2392,25 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="F43" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="G43" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="H43" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="I43" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3178,25 +2421,25 @@
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="F44" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="G44" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H44" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="I44" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3207,25 +2450,25 @@
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="F45" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="G45" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="H45" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="I45" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3236,25 +2479,25 @@
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="F46" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="G46" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="H46" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="I46" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3265,25 +2508,25 @@
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="F47" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="G47" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="H47" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="I47" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3294,25 +2537,25 @@
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="F48" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="G48" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="H48" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="I48" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3323,25 +2566,25 @@
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E49" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="F49" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="G49" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="H49" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="I49" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3355,22 +2598,22 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="F50" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="G50" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="H50" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="I50" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3384,22 +2627,22 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E51" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="F51" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="G51" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="H51" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="I51" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3413,22 +2656,22 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E52" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="F52" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="G52" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="H52" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="I52" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3442,22 +2685,22 @@
         <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="G53" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="H53" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="I53" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3471,22 +2714,22 @@
         <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E54" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="H54" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="I54" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3500,22 +2743,22 @@
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E55" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="F55" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="H55" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="I55" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3529,22 +2772,22 @@
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E56" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="G56" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="H56" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="I56" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3558,22 +2801,22 @@
         <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E57" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="H57" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="I57" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3587,22 +2830,22 @@
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E58" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="F58" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="H58" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="I58" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3616,22 +2859,22 @@
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="H59" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="I59" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3645,22 +2888,22 @@
         <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="G60" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="H60" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="I60" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3674,22 +2917,22 @@
         <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E61" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="G61" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="H61" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="I61" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3700,25 +2943,25 @@
         <v>13</v>
       </c>
       <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
         <v>20</v>
       </c>
-      <c r="D62" t="s">
-        <v>44</v>
-      </c>
       <c r="E62" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="G62" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="H62" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="I62" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3729,25 +2972,25 @@
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="H63" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="I63" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3758,25 +3001,25 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E64" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="G64" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="H64" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="I64" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3787,25 +3030,25 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E65" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="H65" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="I65" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3816,25 +3059,25 @@
         <v>13</v>
       </c>
       <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
         <v>21</v>
       </c>
-      <c r="D66" t="s">
-        <v>48</v>
-      </c>
       <c r="E66" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="H66" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="I66" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3845,25 +3088,25 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="F67" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="H67" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="I67" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3874,25 +3117,25 @@
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E68" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="G68" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="H68" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="I68" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3903,25 +3146,25 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E69" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="H69" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="I69" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3932,25 +3175,25 @@
         <v>13</v>
       </c>
       <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
         <v>22</v>
       </c>
-      <c r="D70" t="s">
-        <v>52</v>
-      </c>
       <c r="E70" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="G70" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="H70" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="I70" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3961,25 +3204,25 @@
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E71" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="H71" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="I71" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3990,25 +3233,25 @@
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D72" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E72" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="G72" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="H72" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="I72" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4019,25 +3262,25 @@
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E73" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="F73" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="G73" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="H73" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="I73" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4048,25 +3291,25 @@
         <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E74" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="F74" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="G74" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="H74" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="I74" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4077,25 +3320,25 @@
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E75" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="F75" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="G75" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="H75" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="I75" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4106,25 +3349,25 @@
         <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E76" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="G76" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="H76" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="I76" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4135,25 +3378,25 @@
         <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E77" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="G77" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="H77" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="I77" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -4164,25 +3407,25 @@
         <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D78" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E78" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="F78" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="G78" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="H78" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="I78" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -4193,25 +3436,25 @@
         <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E79" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="G79" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="H79" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="I79" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4222,25 +3465,25 @@
         <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E80" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="F80" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="G80" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="H80" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="I80" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -4251,25 +3494,25 @@
         <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E81" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="G81" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="H81" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="I81" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -4280,25 +3523,25 @@
         <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E82" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="F82" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="G82" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="H82" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="I82" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -4309,25 +3552,25 @@
         <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E83" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="G83" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="H83" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="I83" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4338,25 +3581,25 @@
         <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E84" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="F84" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="G84" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="H84" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="I84" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4367,25 +3610,25 @@
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D85" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E85" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="G85" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="H85" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="I85" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4396,25 +3639,25 @@
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="F86" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="G86" t="s">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="H86" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="I86" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4425,25 +3668,25 @@
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="G87" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="H87" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="I87" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4454,25 +3697,25 @@
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E88" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="F88" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="G88" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H88" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="I88" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4483,25 +3726,25 @@
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D89" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="G89" t="s">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="H89" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="I89" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4512,25 +3755,25 @@
         <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D90" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E90" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="F90" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="G90" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="H90" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="I90" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4541,25 +3784,25 @@
         <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D91" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="E91" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="F91" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="G91" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="H91" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="I91" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4570,25 +3813,25 @@
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E92" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="F92" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="G92" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H92" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="I92" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4599,25 +3842,25 @@
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E93" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="F93" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="G93" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="H93" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="I93" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4628,25 +3871,25 @@
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="E94" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="F94" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="G94" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="H94" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="I94" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4657,25 +3900,25 @@
         <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="E95" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="F95" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="G95" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="H95" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="I95" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4686,25 +3929,25 @@
         <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E96" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="F96" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="G96" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="H96" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="I96" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4715,25 +3958,25 @@
         <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E97" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="F97" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="G97" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="H97" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="I97" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4747,22 +3990,22 @@
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E98" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="F98" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="G98" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="H98" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="I98" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4776,22 +4019,22 @@
         <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E99" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="F99" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="G99" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="H99" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="I99" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4805,22 +4048,22 @@
         <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E100" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="F100" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="G100" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="H100" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="I100" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4834,22 +4077,22 @@
         <v>17</v>
       </c>
       <c r="D101" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E101" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="F101" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="G101" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="H101" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="I101" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4863,22 +4106,22 @@
         <v>17</v>
       </c>
       <c r="D102" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E102" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="F102" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="G102" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="H102" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="I102" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4892,22 +4135,22 @@
         <v>17</v>
       </c>
       <c r="D103" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E103" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="F103" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="G103" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="H103" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="I103" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4921,22 +4164,22 @@
         <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E104" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="F104" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="G104" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="H104" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="I104" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4950,22 +4193,22 @@
         <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E105" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="F105" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="G105" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="H105" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="I105" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4979,22 +4222,22 @@
         <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E106" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="G106" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="H106" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="I106" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -5008,22 +4251,22 @@
         <v>19</v>
       </c>
       <c r="D107" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E107" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="F107" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="G107" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="H107" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="I107" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -5037,22 +4280,22 @@
         <v>19</v>
       </c>
       <c r="D108" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E108" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="F108" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="G108" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="H108" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="I108" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -5066,22 +4309,22 @@
         <v>19</v>
       </c>
       <c r="D109" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E109" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="G109" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="H109" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="I109" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -5092,25 +4335,25 @@
         <v>13</v>
       </c>
       <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
         <v>20</v>
       </c>
-      <c r="D110" t="s">
-        <v>44</v>
-      </c>
       <c r="E110" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="F110" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="G110" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="H110" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="I110" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -5121,25 +4364,25 @@
         <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E111" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="F111" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="G111" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="H111" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="I111" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -5150,25 +4393,25 @@
         <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E112" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="F112" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="G112" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="H112" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="I112" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -5179,25 +4422,25 @@
         <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D113" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E113" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="G113" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="H113" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="I113" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -5208,25 +4451,25 @@
         <v>13</v>
       </c>
       <c r="C114" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" t="s">
         <v>21</v>
       </c>
-      <c r="D114" t="s">
-        <v>48</v>
-      </c>
       <c r="E114" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="F114" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="G114" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="H114" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="I114" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -5237,25 +4480,25 @@
         <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D115" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E115" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="F115" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="G115" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="H115" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="I115" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -5266,25 +4509,25 @@
         <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E116" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="F116" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="G116" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="H116" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="I116" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -5295,25 +4538,25 @@
         <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E117" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="F117" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="G117" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="H117" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="I117" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5324,25 +4567,25 @@
         <v>13</v>
       </c>
       <c r="C118" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" t="s">
         <v>22</v>
       </c>
-      <c r="D118" t="s">
-        <v>52</v>
-      </c>
       <c r="E118" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="F118" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="G118" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="H118" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="I118" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -5353,25 +4596,25 @@
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E119" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="F119" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="G119" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="H119" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="I119" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5382,25 +4625,25 @@
         <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D120" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E120" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="F120" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="G120" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="H120" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="I120" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5411,25 +4654,25 @@
         <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E121" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="F121" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="G121" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="H121" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="I121" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -5440,25 +4683,25 @@
         <v>14</v>
       </c>
       <c r="C122" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E122" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="F122" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="G122" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="H122" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="I122" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5469,25 +4712,25 @@
         <v>14</v>
       </c>
       <c r="C123" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D123" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="E123" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="F123" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="G123" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="H123" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="I123" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5498,25 +4741,25 @@
         <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D124" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E124" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="F124" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="G124" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="H124" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="I124" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -5527,25 +4770,25 @@
         <v>14</v>
       </c>
       <c r="C125" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D125" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E125" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="F125" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="G125" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="H125" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="I125" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -5556,25 +4799,25 @@
         <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D126" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E126" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="F126" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="G126" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="H126" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="I126" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5585,25 +4828,25 @@
         <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D127" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E127" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="F127" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="G127" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="H127" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="I127" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5614,25 +4857,25 @@
         <v>14</v>
       </c>
       <c r="C128" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E128" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="F128" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="G128" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="H128" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="I128" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5643,25 +4886,25 @@
         <v>14</v>
       </c>
       <c r="C129" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D129" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E129" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="F129" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="G129" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="H129" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="I129" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5672,25 +4915,25 @@
         <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E130" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="F130" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="G130" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="H130" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="I130" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5701,25 +4944,25 @@
         <v>14</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D131" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E131" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="F131" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="G131" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="H131" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="I131" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5730,25 +4973,25 @@
         <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D132" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E132" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="F132" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="G132" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="H132" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="I132" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5759,25 +5002,25 @@
         <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D133" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E133" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="F133" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="G133" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="H133" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="I133" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5788,25 +5031,25 @@
         <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="E134" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="F134" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="G134" t="s">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="H134" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="I134" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5817,25 +5060,25 @@
         <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D135" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="E135" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="F135" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="G135" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="H135" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="I135" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5846,25 +5089,25 @@
         <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D136" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E136" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="F136" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="G136" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H136" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="I136" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5875,25 +5118,25 @@
         <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D137" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="E137" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="F137" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="G137" t="s">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="H137" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="I137" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5904,25 +5147,25 @@
         <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D138" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E138" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="F138" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="G138" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="H138" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="I138" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5933,25 +5176,25 @@
         <v>15</v>
       </c>
       <c r="C139" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D139" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="E139" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="F139" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="G139" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="H139" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="I139" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5962,25 +5205,25 @@
         <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E140" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="F140" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="G140" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H140" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="I140" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5991,25 +5234,25 @@
         <v>15</v>
       </c>
       <c r="C141" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E141" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="F141" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="G141" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="H141" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="I141" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -6020,25 +5263,25 @@
         <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D142" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="E142" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="F142" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="G142" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="H142" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="I142" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -6049,25 +5292,25 @@
         <v>15</v>
       </c>
       <c r="C143" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D143" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="E143" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="F143" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="G143" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="H143" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="I143" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -6078,25 +5321,25 @@
         <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D144" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E144" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="F144" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="G144" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="H144" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="I144" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -6107,25 +5350,25 @@
         <v>15</v>
       </c>
       <c r="C145" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D145" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E145" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="F145" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="G145" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="H145" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="I145" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
